--- a/Code/Results/Cases/Case_3_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.445485050170703</v>
+        <v>2.445485050170817</v>
       </c>
       <c r="C2">
-        <v>1.061280933359683</v>
+        <v>1.061280933359711</v>
       </c>
       <c r="D2">
-        <v>0.005802719777669108</v>
+        <v>0.005802719777673992</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -430,10 +430,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.286266006194694</v>
+        <v>1.286266006194708</v>
       </c>
       <c r="I2">
-        <v>0.1969617929361078</v>
+        <v>0.1969617929361114</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.10656491728264</v>
+        <v>2.106564917282526</v>
       </c>
       <c r="C3">
-        <v>0.911916848791634</v>
+        <v>0.9119168487917193</v>
       </c>
       <c r="D3">
-        <v>0.00612304679244513</v>
+        <v>0.006123046792426479</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>1.16156528385504</v>
       </c>
       <c r="I3">
-        <v>0.1721861614947251</v>
+        <v>0.1721861614947144</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.00606283163188</v>
+        <v>1.006062831631901</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.901535624983154</v>
+        <v>1.901535624983097</v>
       </c>
       <c r="C4">
-        <v>0.8218783667246043</v>
+        <v>0.8218783667248033</v>
       </c>
       <c r="D4">
-        <v>0.006324887525407163</v>
+        <v>0.006324887525508416</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.818628155054512</v>
+        <v>1.818628155054597</v>
       </c>
       <c r="C5">
         <v>0.7855387960384803</v>
       </c>
       <c r="D5">
-        <v>0.006408247538491008</v>
+        <v>0.006408247538498557</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.058839308480572</v>
+        <v>1.058839308480586</v>
       </c>
       <c r="I5">
-        <v>0.1516560648683374</v>
+        <v>0.1516560648683516</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8673845999550593</v>
+        <v>0.8673845999550451</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.804896800101204</v>
+        <v>1.804896800101091</v>
       </c>
       <c r="C6">
-        <v>0.7795240148670928</v>
+        <v>0.7795240148671212</v>
       </c>
       <c r="D6">
-        <v>0.006422151270276455</v>
+        <v>0.006422151270268017</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.049911695730103</v>
+        <v>2.049911695730131</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.054021291747858</v>
+        <v>1.05402129174783</v>
       </c>
       <c r="I6">
-        <v>0.1506896913273508</v>
+        <v>0.1506896913273401</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.8607956124442069</v>
+        <v>0.8607956124442211</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.900415059950973</v>
+        <v>1.900415059950944</v>
       </c>
       <c r="C7">
-        <v>0.8213869395440838</v>
+        <v>0.8213869395439986</v>
       </c>
       <c r="D7">
-        <v>0.006326007492647445</v>
+        <v>0.006326007492773122</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.131582124755397</v>
+        <v>2.131582124755383</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>1.087693939194722</v>
       </c>
       <c r="I7">
-        <v>0.1574364691782648</v>
+        <v>0.157436469178279</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.327907095715318</v>
+        <v>2.327907095715489</v>
       </c>
       <c r="C8">
-        <v>1.009389724769903</v>
+        <v>1.009389724770386</v>
       </c>
       <c r="D8">
-        <v>0.005911976381069106</v>
+        <v>0.005911976381173911</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.504372379393118</v>
+        <v>2.504372379393146</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.242571522639807</v>
+        <v>1.242571522639793</v>
       </c>
       <c r="I8">
-        <v>0.1882951954756784</v>
+        <v>0.1882951954756429</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.113299463409682</v>
+        <v>1.113299463409689</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.197136365906431</v>
+        <v>3.197136365906374</v>
       </c>
       <c r="C9">
-        <v>1.394843825964529</v>
+        <v>1.394843825964244</v>
       </c>
       <c r="D9">
-        <v>0.005150944508726774</v>
+        <v>0.005150944508735655</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.293508772316869</v>
+        <v>3.293508772316812</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>1.575311427998045</v>
       </c>
       <c r="I9">
-        <v>0.2540371818807117</v>
+        <v>0.2540371818806832</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.539257872517567</v>
+        <v>1.539257872517581</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,10 +719,10 @@
         <v>3.865190855759238</v>
       </c>
       <c r="C10">
-        <v>1.69395106546142</v>
+        <v>1.693951065461761</v>
       </c>
       <c r="D10">
-        <v>0.004639419377257425</v>
+        <v>0.004639419377028275</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.84466111285731</v>
+        <v>1.844661112857324</v>
       </c>
       <c r="I10">
-        <v>0.307031411534183</v>
+        <v>0.3070314115341404</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.871473661411457</v>
+        <v>1.871473661411443</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.178342851707953</v>
+        <v>4.178342851707839</v>
       </c>
       <c r="C11">
-        <v>1.835015460916168</v>
+        <v>1.835015460915656</v>
       </c>
       <c r="D11">
-        <v>0.004421753295464903</v>
+        <v>0.004421753295649644</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.225718412164866</v>
+        <v>4.225718412164895</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1.974527456747992</v>
+        <v>1.974527456748021</v>
       </c>
       <c r="I11">
-        <v>0.3325709806524486</v>
+        <v>0.3325709806524557</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.028578395192696</v>
+        <v>2.028578395192682</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,25 +795,25 @@
         <v>4.298540289790594</v>
       </c>
       <c r="C12">
-        <v>1.889306490158788</v>
+        <v>1.889306490159242</v>
       </c>
       <c r="D12">
-        <v>0.004341984926155007</v>
+        <v>0.004341984926264253</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.342591907718599</v>
+        <v>4.342591907718656</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.024952836279439</v>
+        <v>2.024952836279496</v>
       </c>
       <c r="I12">
-        <v>0.342490076275233</v>
+        <v>0.3424900762752046</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.272576827262185</v>
+        <v>4.272576827262242</v>
       </c>
       <c r="C13">
-        <v>1.877572374293891</v>
+        <v>1.877572374294402</v>
       </c>
       <c r="D13">
-        <v>0.004359037319373371</v>
+        <v>0.00435903731936893</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2.014033913058299</v>
+        <v>2.014033913058284</v>
       </c>
       <c r="I13">
         <v>0.3403420505018531</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.076023909503959</v>
+        <v>2.076023909503988</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.188197434736537</v>
+        <v>4.188197434736651</v>
       </c>
       <c r="C14">
-        <v>1.839463541570012</v>
+        <v>1.839463541570069</v>
       </c>
       <c r="D14">
-        <v>0.004415134254488251</v>
+        <v>0.004415134254343478</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.235279480473991</v>
+        <v>4.235279480473963</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1.978649755507035</v>
+        <v>1.97864975550705</v>
       </c>
       <c r="I14">
-        <v>0.333381796887906</v>
+        <v>0.3333817968879274</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.033536384881984</v>
+        <v>2.03353638488197</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.136731977512511</v>
+        <v>4.136731977512568</v>
       </c>
       <c r="C15">
-        <v>1.816239501650216</v>
+        <v>1.816239501650557</v>
       </c>
       <c r="D15">
-        <v>0.004449857688523018</v>
+        <v>0.004449857687955472</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.185388526081596</v>
+        <v>4.185388526081567</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1.957144708123352</v>
+        <v>1.95714470812338</v>
       </c>
       <c r="I15">
-        <v>0.3291520857181425</v>
+        <v>0.3291520857181496</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.007652766914489</v>
+        <v>2.007652766914475</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.844934951055222</v>
+        <v>3.844934951054995</v>
       </c>
       <c r="C16">
-        <v>1.684845357487518</v>
+        <v>1.684845357487234</v>
       </c>
       <c r="D16">
-        <v>0.004653986987896097</v>
+        <v>0.004653986987950276</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.904493932839983</v>
+        <v>3.904493932840012</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1.836337451771428</v>
+        <v>1.836337451771442</v>
       </c>
       <c r="I16">
         <v>0.305394571362072</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.668483598639057</v>
+        <v>3.668483598639</v>
       </c>
       <c r="C17">
-        <v>1.605621400611483</v>
+        <v>1.605621400611255</v>
       </c>
       <c r="D17">
-        <v>0.00478338624961161</v>
+        <v>0.004783386249703092</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.736304527952001</v>
+        <v>3.736304527951972</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.764232924401924</v>
+        <v>1.764232924401909</v>
       </c>
       <c r="I17">
-        <v>0.2912144520771633</v>
+        <v>0.2912144520771704</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.77323384671665</v>
+        <v>1.773233846716693</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.567844706595451</v>
+        <v>3.567844706595508</v>
       </c>
       <c r="C18">
         <v>1.560513788755657</v>
       </c>
       <c r="D18">
-        <v>0.004859193081714785</v>
+        <v>0.00485919308149807</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.640957414647517</v>
+        <v>3.640957414647545</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1.723437758441065</v>
+        <v>1.723437758441094</v>
       </c>
       <c r="I18">
-        <v>0.2831903302642402</v>
+        <v>0.2831903302642687</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.723106977310962</v>
+        <v>1.723106977310948</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.533908419340946</v>
+        <v>3.533908419341117</v>
       </c>
       <c r="C19">
-        <v>1.545315833806569</v>
+        <v>1.545315833806058</v>
       </c>
       <c r="D19">
-        <v>0.004885083387644151</v>
+        <v>0.004885083387655698</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.608902082110461</v>
+        <v>3.608902082110404</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1.709736201443533</v>
+        <v>1.709736201443548</v>
       </c>
       <c r="I19">
-        <v>0.2804949982603162</v>
+        <v>0.2804949982603375</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.706224406744838</v>
+        <v>1.706224406744852</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.687177139237406</v>
+        <v>3.687177139237633</v>
       </c>
       <c r="C20">
-        <v>1.614006292570593</v>
+        <v>1.614006292570082</v>
       </c>
       <c r="D20">
-        <v>0.004769465388759109</v>
+        <v>0.004769465388532623</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.771837165267144</v>
+        <v>1.771837165267158</v>
       </c>
       <c r="I20">
-        <v>0.2927100182987132</v>
+        <v>0.2927100182987346</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.782554893946099</v>
+        <v>1.782554893946084</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,16 +1137,16 @@
         <v>4.212935418986717</v>
       </c>
       <c r="C21">
-        <v>1.85063197442372</v>
+        <v>1.850631974423663</v>
       </c>
       <c r="D21">
-        <v>0.004398580662264173</v>
+        <v>0.004398580662241081</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.259297234907336</v>
+        <v>4.259297234907365</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>1.989007377853923</v>
       </c>
       <c r="I21">
-        <v>0.3354190946809439</v>
+        <v>0.3354190946809936</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.045986204920894</v>
+        <v>2.045986204920922</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.566122157159668</v>
+        <v>4.566122157159612</v>
       </c>
       <c r="C22">
-        <v>2.010461151972834</v>
+        <v>2.010461151972379</v>
       </c>
       <c r="D22">
-        <v>0.004171980649215534</v>
+        <v>0.004171980648969509</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.60474834287794</v>
+        <v>4.604748342877969</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.138328174074715</v>
+        <v>2.138328174074744</v>
       </c>
       <c r="I22">
-        <v>0.3648017178724743</v>
+        <v>0.3648017178725169</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.376637111584557</v>
+        <v>4.376637111584671</v>
       </c>
       <c r="C23">
-        <v>1.924625041592833</v>
+        <v>1.924625041592606</v>
       </c>
       <c r="D23">
-        <v>0.004291284881433377</v>
+        <v>0.004291284881587032</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.418825817953547</v>
+        <v>4.418825817953518</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.057884384803756</v>
+        <v>2.057884384803742</v>
       </c>
       <c r="I23">
-        <v>0.3489692489021508</v>
+        <v>0.3489692489021721</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.128507467645477</v>
+        <v>2.128507467645449</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,10 +1251,10 @@
         <v>3.678723301822345</v>
       </c>
       <c r="C24">
-        <v>1.610214125875189</v>
+        <v>1.610214125875473</v>
       </c>
       <c r="D24">
-        <v>0.004775754643607577</v>
+        <v>0.004775754643540964</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.7683972504297</v>
+        <v>1.768397250429672</v>
       </c>
       <c r="I24">
-        <v>0.2920334764945736</v>
+        <v>0.2920334764945451</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.957673011770282</v>
+        <v>2.957673011770396</v>
       </c>
       <c r="C25">
         <v>1.2882338604079</v>
       </c>
       <c r="D25">
-        <v>0.005349839992954131</v>
+        <v>0.005349839992677907</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.072366146785782</v>
+        <v>3.072366146785811</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.481506192893718</v>
+        <v>1.481506192893747</v>
       </c>
       <c r="I25">
-        <v>0.2355506022981046</v>
+        <v>0.2355506022980975</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.421176763759661</v>
+        <v>1.421176763759618</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.445485050170817</v>
+        <v>2.445485050170703</v>
       </c>
       <c r="C2">
-        <v>1.061280933359711</v>
+        <v>1.061280933359683</v>
       </c>
       <c r="D2">
-        <v>0.005802719777673992</v>
+        <v>0.005802719777669108</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -430,10 +430,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.286266006194708</v>
+        <v>1.286266006194694</v>
       </c>
       <c r="I2">
-        <v>0.1969617929361114</v>
+        <v>0.1969617929361078</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.106564917282526</v>
+        <v>2.10656491728264</v>
       </c>
       <c r="C3">
-        <v>0.9119168487917193</v>
+        <v>0.911916848791634</v>
       </c>
       <c r="D3">
-        <v>0.006123046792426479</v>
+        <v>0.00612304679244513</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>1.16156528385504</v>
       </c>
       <c r="I3">
-        <v>0.1721861614947144</v>
+        <v>0.1721861614947251</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.006062831631901</v>
+        <v>1.00606283163188</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.901535624983097</v>
+        <v>1.901535624983154</v>
       </c>
       <c r="C4">
-        <v>0.8218783667248033</v>
+        <v>0.8218783667246043</v>
       </c>
       <c r="D4">
-        <v>0.006324887525508416</v>
+        <v>0.006324887525407163</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.818628155054597</v>
+        <v>1.818628155054512</v>
       </c>
       <c r="C5">
         <v>0.7855387960384803</v>
       </c>
       <c r="D5">
-        <v>0.006408247538498557</v>
+        <v>0.006408247538491008</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.058839308480586</v>
+        <v>1.058839308480572</v>
       </c>
       <c r="I5">
-        <v>0.1516560648683516</v>
+        <v>0.1516560648683374</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8673845999550451</v>
+        <v>0.8673845999550593</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.804896800101091</v>
+        <v>1.804896800101204</v>
       </c>
       <c r="C6">
-        <v>0.7795240148671212</v>
+        <v>0.7795240148670928</v>
       </c>
       <c r="D6">
-        <v>0.006422151270268017</v>
+        <v>0.006422151270276455</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.049911695730131</v>
+        <v>2.049911695730103</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.05402129174783</v>
+        <v>1.054021291747858</v>
       </c>
       <c r="I6">
-        <v>0.1506896913273401</v>
+        <v>0.1506896913273508</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.8607956124442211</v>
+        <v>0.8607956124442069</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.900415059950944</v>
+        <v>1.900415059950973</v>
       </c>
       <c r="C7">
-        <v>0.8213869395439986</v>
+        <v>0.8213869395440838</v>
       </c>
       <c r="D7">
-        <v>0.006326007492773122</v>
+        <v>0.006326007492647445</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.131582124755383</v>
+        <v>2.131582124755397</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>1.087693939194722</v>
       </c>
       <c r="I7">
-        <v>0.157436469178279</v>
+        <v>0.1574364691782648</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.327907095715489</v>
+        <v>2.327907095715318</v>
       </c>
       <c r="C8">
-        <v>1.009389724770386</v>
+        <v>1.009389724769903</v>
       </c>
       <c r="D8">
-        <v>0.005911976381173911</v>
+        <v>0.005911976381069106</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.504372379393146</v>
+        <v>2.504372379393118</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.242571522639793</v>
+        <v>1.242571522639807</v>
       </c>
       <c r="I8">
-        <v>0.1882951954756429</v>
+        <v>0.1882951954756784</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.113299463409689</v>
+        <v>1.113299463409682</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.197136365906374</v>
+        <v>3.197136365906431</v>
       </c>
       <c r="C9">
-        <v>1.394843825964244</v>
+        <v>1.394843825964529</v>
       </c>
       <c r="D9">
-        <v>0.005150944508735655</v>
+        <v>0.005150944508726774</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.293508772316812</v>
+        <v>3.293508772316869</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>1.575311427998045</v>
       </c>
       <c r="I9">
-        <v>0.2540371818806832</v>
+        <v>0.2540371818807117</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.539257872517581</v>
+        <v>1.539257872517567</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,10 +719,10 @@
         <v>3.865190855759238</v>
       </c>
       <c r="C10">
-        <v>1.693951065461761</v>
+        <v>1.69395106546142</v>
       </c>
       <c r="D10">
-        <v>0.004639419377028275</v>
+        <v>0.004639419377257425</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.844661112857324</v>
+        <v>1.84466111285731</v>
       </c>
       <c r="I10">
-        <v>0.3070314115341404</v>
+        <v>0.307031411534183</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.871473661411443</v>
+        <v>1.871473661411457</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.178342851707839</v>
+        <v>4.178342851707953</v>
       </c>
       <c r="C11">
-        <v>1.835015460915656</v>
+        <v>1.835015460916168</v>
       </c>
       <c r="D11">
-        <v>0.004421753295649644</v>
+        <v>0.004421753295464903</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.225718412164895</v>
+        <v>4.225718412164866</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1.974527456748021</v>
+        <v>1.974527456747992</v>
       </c>
       <c r="I11">
-        <v>0.3325709806524557</v>
+        <v>0.3325709806524486</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.028578395192682</v>
+        <v>2.028578395192696</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,25 +795,25 @@
         <v>4.298540289790594</v>
       </c>
       <c r="C12">
-        <v>1.889306490159242</v>
+        <v>1.889306490158788</v>
       </c>
       <c r="D12">
-        <v>0.004341984926264253</v>
+        <v>0.004341984926155007</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.342591907718656</v>
+        <v>4.342591907718599</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.024952836279496</v>
+        <v>2.024952836279439</v>
       </c>
       <c r="I12">
-        <v>0.3424900762752046</v>
+        <v>0.342490076275233</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.272576827262242</v>
+        <v>4.272576827262185</v>
       </c>
       <c r="C13">
-        <v>1.877572374294402</v>
+        <v>1.877572374293891</v>
       </c>
       <c r="D13">
-        <v>0.00435903731936893</v>
+        <v>0.004359037319373371</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2.014033913058284</v>
+        <v>2.014033913058299</v>
       </c>
       <c r="I13">
         <v>0.3403420505018531</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.076023909503988</v>
+        <v>2.076023909503959</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.188197434736651</v>
+        <v>4.188197434736537</v>
       </c>
       <c r="C14">
-        <v>1.839463541570069</v>
+        <v>1.839463541570012</v>
       </c>
       <c r="D14">
-        <v>0.004415134254343478</v>
+        <v>0.004415134254488251</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.235279480473963</v>
+        <v>4.235279480473991</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1.97864975550705</v>
+        <v>1.978649755507035</v>
       </c>
       <c r="I14">
-        <v>0.3333817968879274</v>
+        <v>0.333381796887906</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.03353638488197</v>
+        <v>2.033536384881984</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.136731977512568</v>
+        <v>4.136731977512511</v>
       </c>
       <c r="C15">
-        <v>1.816239501650557</v>
+        <v>1.816239501650216</v>
       </c>
       <c r="D15">
-        <v>0.004449857687955472</v>
+        <v>0.004449857688523018</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.185388526081567</v>
+        <v>4.185388526081596</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1.95714470812338</v>
+        <v>1.957144708123352</v>
       </c>
       <c r="I15">
-        <v>0.3291520857181496</v>
+        <v>0.3291520857181425</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.007652766914475</v>
+        <v>2.007652766914489</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.844934951054995</v>
+        <v>3.844934951055222</v>
       </c>
       <c r="C16">
-        <v>1.684845357487234</v>
+        <v>1.684845357487518</v>
       </c>
       <c r="D16">
-        <v>0.004653986987950276</v>
+        <v>0.004653986987896097</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.904493932840012</v>
+        <v>3.904493932839983</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1.836337451771442</v>
+        <v>1.836337451771428</v>
       </c>
       <c r="I16">
         <v>0.305394571362072</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.668483598639</v>
+        <v>3.668483598639057</v>
       </c>
       <c r="C17">
-        <v>1.605621400611255</v>
+        <v>1.605621400611483</v>
       </c>
       <c r="D17">
-        <v>0.004783386249703092</v>
+        <v>0.00478338624961161</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.736304527951972</v>
+        <v>3.736304527952001</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.764232924401909</v>
+        <v>1.764232924401924</v>
       </c>
       <c r="I17">
-        <v>0.2912144520771704</v>
+        <v>0.2912144520771633</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.773233846716693</v>
+        <v>1.77323384671665</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.567844706595508</v>
+        <v>3.567844706595451</v>
       </c>
       <c r="C18">
         <v>1.560513788755657</v>
       </c>
       <c r="D18">
-        <v>0.00485919308149807</v>
+        <v>0.004859193081714785</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.640957414647545</v>
+        <v>3.640957414647517</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1.723437758441094</v>
+        <v>1.723437758441065</v>
       </c>
       <c r="I18">
-        <v>0.2831903302642687</v>
+        <v>0.2831903302642402</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.723106977310948</v>
+        <v>1.723106977310962</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.533908419341117</v>
+        <v>3.533908419340946</v>
       </c>
       <c r="C19">
-        <v>1.545315833806058</v>
+        <v>1.545315833806569</v>
       </c>
       <c r="D19">
-        <v>0.004885083387655698</v>
+        <v>0.004885083387644151</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.608902082110404</v>
+        <v>3.608902082110461</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1.709736201443548</v>
+        <v>1.709736201443533</v>
       </c>
       <c r="I19">
-        <v>0.2804949982603375</v>
+        <v>0.2804949982603162</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.706224406744852</v>
+        <v>1.706224406744838</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.687177139237633</v>
+        <v>3.687177139237406</v>
       </c>
       <c r="C20">
-        <v>1.614006292570082</v>
+        <v>1.614006292570593</v>
       </c>
       <c r="D20">
-        <v>0.004769465388532623</v>
+        <v>0.004769465388759109</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.771837165267158</v>
+        <v>1.771837165267144</v>
       </c>
       <c r="I20">
-        <v>0.2927100182987346</v>
+        <v>0.2927100182987132</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.782554893946084</v>
+        <v>1.782554893946099</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,16 +1137,16 @@
         <v>4.212935418986717</v>
       </c>
       <c r="C21">
-        <v>1.850631974423663</v>
+        <v>1.85063197442372</v>
       </c>
       <c r="D21">
-        <v>0.004398580662241081</v>
+        <v>0.004398580662264173</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.259297234907365</v>
+        <v>4.259297234907336</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>1.989007377853923</v>
       </c>
       <c r="I21">
-        <v>0.3354190946809936</v>
+        <v>0.3354190946809439</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.045986204920922</v>
+        <v>2.045986204920894</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.566122157159612</v>
+        <v>4.566122157159668</v>
       </c>
       <c r="C22">
-        <v>2.010461151972379</v>
+        <v>2.010461151972834</v>
       </c>
       <c r="D22">
-        <v>0.004171980648969509</v>
+        <v>0.004171980649215534</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.604748342877969</v>
+        <v>4.60474834287794</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.138328174074744</v>
+        <v>2.138328174074715</v>
       </c>
       <c r="I22">
-        <v>0.3648017178725169</v>
+        <v>0.3648017178724743</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.376637111584671</v>
+        <v>4.376637111584557</v>
       </c>
       <c r="C23">
-        <v>1.924625041592606</v>
+        <v>1.924625041592833</v>
       </c>
       <c r="D23">
-        <v>0.004291284881587032</v>
+        <v>0.004291284881433377</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.418825817953518</v>
+        <v>4.418825817953547</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.057884384803742</v>
+        <v>2.057884384803756</v>
       </c>
       <c r="I23">
-        <v>0.3489692489021721</v>
+        <v>0.3489692489021508</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.128507467645449</v>
+        <v>2.128507467645477</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,10 +1251,10 @@
         <v>3.678723301822345</v>
       </c>
       <c r="C24">
-        <v>1.610214125875473</v>
+        <v>1.610214125875189</v>
       </c>
       <c r="D24">
-        <v>0.004775754643540964</v>
+        <v>0.004775754643607577</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.768397250429672</v>
+        <v>1.7683972504297</v>
       </c>
       <c r="I24">
-        <v>0.2920334764945451</v>
+        <v>0.2920334764945736</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.957673011770396</v>
+        <v>2.957673011770282</v>
       </c>
       <c r="C25">
         <v>1.2882338604079</v>
       </c>
       <c r="D25">
-        <v>0.005349839992677907</v>
+        <v>0.005349839992954131</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.072366146785811</v>
+        <v>3.072366146785782</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.481506192893747</v>
+        <v>1.481506192893718</v>
       </c>
       <c r="I25">
-        <v>0.2355506022980975</v>
+        <v>0.2355506022981046</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.421176763759618</v>
+        <v>1.421176763759661</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.445485050170703</v>
+        <v>2.423312824011873</v>
       </c>
       <c r="C2">
-        <v>1.061280933359683</v>
+        <v>1.048218054135305</v>
       </c>
       <c r="D2">
-        <v>0.005802719777669108</v>
+        <v>0.007443582597423504</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.608818235110562</v>
+        <v>2.619580757268835</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007755958040696532</v>
       </c>
       <c r="H2">
-        <v>1.286266006194694</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1969617929361078</v>
+        <v>1.297959456927188</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1959577515090807</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.170476326545369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1.165181853105366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.10656491728264</v>
+        <v>2.087335090912802</v>
       </c>
       <c r="C3">
-        <v>0.911916848791634</v>
+        <v>0.9005915164345595</v>
       </c>
       <c r="D3">
-        <v>0.00612304679244513</v>
+        <v>0.007824277885385644</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.309931681523025</v>
+        <v>2.324568394186002</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007848949919283054</v>
       </c>
       <c r="H3">
-        <v>1.16156528385504</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1721861614947251</v>
+        <v>1.175210657765959</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.171153238537272</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.00606283163188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1.001725140981385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.901535624983154</v>
+        <v>1.884112058032258</v>
       </c>
       <c r="C4">
-        <v>0.8218783667246043</v>
+        <v>0.8116183512970281</v>
       </c>
       <c r="D4">
-        <v>0.006324887525407163</v>
+        <v>0.008062945288791479</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.132543983207853</v>
+        <v>2.149541098608879</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007907331851873039</v>
       </c>
       <c r="H4">
-        <v>1.088091120693761</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1575159544293712</v>
+        <v>1.102926416626531</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1564601991269257</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.9072159599744083</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.9034526263239187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.818628155054512</v>
+        <v>1.801942286870968</v>
       </c>
       <c r="C5">
-        <v>0.7855387960384803</v>
+        <v>0.775713577193585</v>
       </c>
       <c r="D5">
-        <v>0.006408247538491008</v>
+        <v>0.008161274920276185</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.061612939287386</v>
+        <v>2.079569962913268</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007931469280684077</v>
       </c>
       <c r="H5">
-        <v>1.058839308480572</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1516560648683374</v>
+        <v>1.074158656425624</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1505898578423945</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8673845999550593</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.8638529184733557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.804896800101204</v>
+        <v>1.788333571250774</v>
       </c>
       <c r="C6">
-        <v>0.7795240148670928</v>
+        <v>0.7697710626216292</v>
       </c>
       <c r="D6">
-        <v>0.006422151270276455</v>
+        <v>0.008177662694000443</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.049911695730103</v>
+        <v>2.068028063083531</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007935498840899171</v>
       </c>
       <c r="H6">
-        <v>1.054021291747858</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1506896913273508</v>
+        <v>1.069420999816415</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1496216830265347</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.8607956124442069</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.8573022752749679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.900415059950973</v>
+        <v>1.883001433126026</v>
       </c>
       <c r="C7">
-        <v>0.8213869395440838</v>
+        <v>0.8111327839152978</v>
       </c>
       <c r="D7">
-        <v>0.006326007492647445</v>
+        <v>0.008064267265578628</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.131582124755397</v>
+        <v>2.148592190560151</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007907655947444938</v>
       </c>
       <c r="H7">
-        <v>1.087693939194722</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1574364691782648</v>
+        <v>1.102535765062527</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.15638057740383</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.9066770593402538</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.9029168584708103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.327907095715318</v>
+        <v>2.306750605789034</v>
       </c>
       <c r="C8">
-        <v>1.009389724769903</v>
+        <v>0.9969269553657227</v>
       </c>
       <c r="D8">
-        <v>0.005911976381069106</v>
+        <v>0.007573718457328127</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.504372379393118</v>
+        <v>2.516476236915878</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007787769772893771</v>
       </c>
       <c r="H8">
-        <v>1.242571522639807</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1882951954756784</v>
+        <v>1.254940613221194</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1872823426220585</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.113299463409682</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1.108338190065908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.197136365906431</v>
+        <v>3.168544549571891</v>
       </c>
       <c r="C9">
-        <v>1.394843825964529</v>
+        <v>1.377981168498025</v>
       </c>
       <c r="D9">
-        <v>0.005150944508726774</v>
+        <v>0.006659547602362537</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.293508772316869</v>
+        <v>3.295705137099588</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.000756168160351518</v>
       </c>
       <c r="H9">
-        <v>1.575311427998045</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2540371818807117</v>
+        <v>1.582694307215135</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2530607128296083</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.539257872517567</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.531788790549754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.865190855759238</v>
+        <v>3.830920577081883</v>
       </c>
       <c r="C10">
-        <v>1.69395106546142</v>
+        <v>1.673717759537453</v>
       </c>
       <c r="D10">
-        <v>0.004639419377257425</v>
+        <v>0.00603167505605029</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.923882948316219</v>
+        <v>3.918387173061433</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007399174260038416</v>
       </c>
       <c r="H10">
-        <v>1.84466111285731</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.307031411534183</v>
+        <v>1.848180005108006</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.306038794127204</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.871473661411457</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.861985191697286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.178342851707953</v>
+        <v>4.141396617615897</v>
       </c>
       <c r="C11">
-        <v>1.835015460916168</v>
+        <v>1.81319084499512</v>
       </c>
       <c r="D11">
-        <v>0.004421753295464903</v>
+        <v>0.005759705002363447</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.225718412164866</v>
+        <v>4.21656444553301</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007325522591233327</v>
       </c>
       <c r="H11">
-        <v>1.974527456747992</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3325709806524486</v>
+        <v>1.976211163125626</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3315574468961699</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.028578395192696</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>2.01810784579618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.298540289790594</v>
+        <v>4.260562465237513</v>
       </c>
       <c r="C12">
-        <v>1.889306490158788</v>
+        <v>1.866867943817113</v>
       </c>
       <c r="D12">
-        <v>0.004341984926155007</v>
+        <v>0.005659119467082974</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.342591907718599</v>
+        <v>4.332022393969851</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007297621784589925</v>
       </c>
       <c r="H12">
-        <v>2.024952836279439</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.342490076275233</v>
+        <v>2.025926852137601</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3414661842797742</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.089109871903545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>2.078255567820932</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.272576827262185</v>
+        <v>4.234822077204853</v>
       </c>
       <c r="C13">
-        <v>1.877572374293891</v>
+        <v>1.855266608276736</v>
       </c>
       <c r="D13">
-        <v>0.004359037319373371</v>
+        <v>0.005680667478764612</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.31729935879693</v>
+        <v>4.307036191071177</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007303632074583883</v>
       </c>
       <c r="H13">
-        <v>2.014033913058299</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3403420505018531</v>
+        <v>2.015161495663122</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3393205069834977</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.076023909503959</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>2.065252832425486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.188197434736537</v>
+        <v>4.151166729383363</v>
       </c>
       <c r="C14">
-        <v>1.839463541570012</v>
+        <v>1.817588664063464</v>
       </c>
       <c r="D14">
-        <v>0.004415134254488251</v>
+        <v>0.005751378755162406</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.235279480473991</v>
+        <v>4.226009711079001</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007323227699595655</v>
       </c>
       <c r="H14">
-        <v>1.978649755507035</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.333381796887906</v>
+        <v>1.9802753943531</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3323674630821287</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.033536384881984</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>2.023034519613546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.136731977512511</v>
+        <v>4.100142226544904</v>
       </c>
       <c r="C15">
-        <v>1.816239501650216</v>
+        <v>1.794626978815813</v>
       </c>
       <c r="D15">
-        <v>0.004449857688523018</v>
+        <v>0.005795019065262252</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.185388526081596</v>
+        <v>4.17672305125285</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007335227597803584</v>
       </c>
       <c r="H15">
-        <v>1.957144708123352</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3291520857181425</v>
+        <v>1.959073379457038</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.328141833867285</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.007652766914489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.997314164034407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.844934951055222</v>
+        <v>3.810837289311053</v>
       </c>
       <c r="C16">
-        <v>1.684845357487518</v>
+        <v>1.664714639453848</v>
       </c>
       <c r="D16">
-        <v>0.004653986987896097</v>
+        <v>0.006049759346930195</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.904493932839983</v>
+        <v>3.899233433528167</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007403988998271327</v>
       </c>
       <c r="H16">
-        <v>1.836337451771428</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.305394571362072</v>
+        <v>1.839974428765899</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3044030092088974</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.86134146041465</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.851915675818731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.668483598639057</v>
+        <v>3.635887818794117</v>
       </c>
       <c r="C17">
-        <v>1.605621400611483</v>
+        <v>1.586382940482906</v>
       </c>
       <c r="D17">
-        <v>0.00478338624961161</v>
+        <v>0.006209817854323951</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.736304527952001</v>
+        <v>3.733087376186546</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007446208969912985</v>
       </c>
       <c r="H17">
-        <v>1.764232924401924</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2912144520771633</v>
+        <v>1.768895729513986</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2902305733905948</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.77323384671665</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.764350045254474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.567844706595451</v>
+        <v>3.536104386567615</v>
       </c>
       <c r="C18">
-        <v>1.560513788755657</v>
+        <v>1.541783287895953</v>
       </c>
       <c r="D18">
-        <v>0.004859193081714785</v>
+        <v>0.006303133332494326</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.640957414647517</v>
+        <v>3.638901104675853</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.000747052196392192</v>
       </c>
       <c r="H18">
-        <v>1.723437758441065</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2831903302642402</v>
+        <v>1.728683560845042</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2822096293293299</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.723106977310962</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.714529135413613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.533908419340946</v>
+        <v>3.502456436069508</v>
       </c>
       <c r="C19">
-        <v>1.545315833806569</v>
+        <v>1.526756499351848</v>
       </c>
       <c r="D19">
-        <v>0.004885083387644151</v>
+        <v>0.006334931694679469</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.608902082110461</v>
+        <v>3.607236533248368</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007478760328761824</v>
       </c>
       <c r="H19">
-        <v>1.709736201443533</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2804949982603162</v>
+        <v>1.715178286445706</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2795151727659615</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.706224406744838</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.697749238782123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.687177139237406</v>
+        <v>3.654422381267011</v>
       </c>
       <c r="C20">
-        <v>1.614006292570593</v>
+        <v>1.594673412385816</v>
       </c>
       <c r="D20">
-        <v>0.004769465388759109</v>
+        <v>0.006192646646161037</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.754061878174923</v>
+        <v>3.750628751276025</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007441711897263361</v>
       </c>
       <c r="H20">
-        <v>1.771837165267144</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2927100182987132</v>
+        <v>1.776391520645902</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.291725453300181</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.782554893946099</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.773614012892253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.212935418986717</v>
+        <v>4.175692584742364</v>
       </c>
       <c r="C21">
-        <v>1.85063197442372</v>
+        <v>1.828630869518463</v>
       </c>
       <c r="D21">
-        <v>0.004398580662264173</v>
+        <v>0.005730539949650115</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.259297234907336</v>
+        <v>4.249736569353303</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007317472713059825</v>
       </c>
       <c r="H21">
-        <v>1.989007377853923</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3354190946809439</v>
+        <v>1.990487158560427</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3344027139229908</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.045986204920894</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>2.035405612774596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.566122157159668</v>
+        <v>4.525836473456934</v>
       </c>
       <c r="C22">
-        <v>2.010461151972834</v>
+        <v>1.986648201011178</v>
       </c>
       <c r="D22">
-        <v>0.004171980649215534</v>
+        <v>0.005442809964145034</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.60474834287794</v>
+        <v>4.591001777600269</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.000723618443188555</v>
       </c>
       <c r="H22">
-        <v>2.138328174074715</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3648017178724743</v>
+        <v>2.137710278597524</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.363750001477392</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.224319319856818</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>2.212596134829511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.376637111584557</v>
+        <v>4.337987426286361</v>
       </c>
       <c r="C23">
-        <v>1.924625041592833</v>
+        <v>1.901786511775981</v>
       </c>
       <c r="D23">
-        <v>0.004291284881433377</v>
+        <v>0.005594899920741803</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.418825817953547</v>
+        <v>4.407332843002393</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007279596564197255</v>
       </c>
       <c r="H23">
-        <v>2.057884384803756</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3489692489021508</v>
+        <v>2.058395554288737</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3479379211447124</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.128507467645477</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>2.117401690692958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.678723301822345</v>
+        <v>3.646040442401841</v>
       </c>
       <c r="C24">
-        <v>1.610214125875189</v>
+        <v>1.590923948392685</v>
       </c>
       <c r="D24">
-        <v>0.004775754643607577</v>
+        <v>0.006200405745829585</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.746029613696237</v>
+        <v>3.742694171934829</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007443744895279943</v>
       </c>
       <c r="H24">
-        <v>1.7683972504297</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2920334764945736</v>
+        <v>1.77300065674352</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2910492256040982</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.77833921898096</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.769424160962259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.957673011770282</v>
+        <v>2.931117342644711</v>
       </c>
       <c r="C25">
-        <v>1.2882338604079</v>
+        <v>1.272577687658895</v>
       </c>
       <c r="D25">
-        <v>0.005349839992954131</v>
+        <v>0.006900384874064969</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.072366146785782</v>
+        <v>3.077295361348746</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007622060189175539</v>
       </c>
       <c r="H25">
-        <v>1.481506192893718</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2355506022981046</v>
+        <v>1.490263442335831</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2345706411135851</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.421176763759661</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.414410070328344</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.423312824011873</v>
+        <v>2.436156536400404</v>
       </c>
       <c r="C2">
-        <v>1.048218054135305</v>
+        <v>0.2543379220983581</v>
       </c>
       <c r="D2">
-        <v>0.007443582597423504</v>
+        <v>0.05218078173654206</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.619580757268835</v>
+        <v>2.186791212351665</v>
       </c>
       <c r="G2">
-        <v>0.0007755958040696532</v>
+        <v>0.0008035058586255408</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.297959456927188</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1959577515090807</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5221658288159361</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4012280180526204</v>
       </c>
       <c r="M2">
-        <v>1.165181853105366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.778842516235017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.087335090912802</v>
+        <v>2.108833722762483</v>
       </c>
       <c r="C3">
-        <v>0.9005915164345595</v>
+        <v>0.2306206263838533</v>
       </c>
       <c r="D3">
-        <v>0.007824277885385644</v>
+        <v>0.0531124850136635</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.324568394186002</v>
+        <v>1.980047767086802</v>
       </c>
       <c r="G3">
-        <v>0.0007848949919283054</v>
+        <v>0.0008115264115006789</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.175210657765959</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.171153238537272</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4503606030974296</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3527361520188634</v>
       </c>
       <c r="M3">
-        <v>1.001725140981385</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.620877829639753</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.884112058032258</v>
+        <v>1.91099162702551</v>
       </c>
       <c r="C4">
-        <v>0.8116183512970281</v>
+        <v>0.2161048877955096</v>
       </c>
       <c r="D4">
-        <v>0.008062945288791479</v>
+        <v>0.05373391395553995</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.149541098608879</v>
+        <v>1.857180355963166</v>
       </c>
       <c r="G4">
-        <v>0.0007907331851873039</v>
+        <v>0.000816580934183525</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.102926416626531</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1564601991269257</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4068517971899794</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3236253689815385</v>
       </c>
       <c r="M4">
-        <v>0.9034526263239187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.527227356166804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.801942286870968</v>
+        <v>1.831053330230219</v>
       </c>
       <c r="C5">
-        <v>0.775713577193585</v>
+        <v>0.2101948718065785</v>
       </c>
       <c r="D5">
-        <v>0.008161274920276185</v>
+        <v>0.05399867422082139</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.079569962913268</v>
+        <v>1.808032327307743</v>
       </c>
       <c r="G5">
-        <v>0.0007931469280684077</v>
+        <v>0.0008186748627844343</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.074158656425624</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1505898578423945</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3892452969274558</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.311910586996035</v>
       </c>
       <c r="M5">
-        <v>0.8638529184733557</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.489821014920835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.788333571250774</v>
+        <v>1.817818056915797</v>
       </c>
       <c r="C6">
-        <v>0.7697710626216292</v>
+        <v>0.2092136574895704</v>
       </c>
       <c r="D6">
-        <v>0.008177662694000443</v>
+        <v>0.05404330902430843</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.068028063083531</v>
+        <v>1.799924130771643</v>
       </c>
       <c r="G6">
-        <v>0.0007935498840899171</v>
+        <v>0.0008190246638170377</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.069420999816415</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1496216830265347</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.386328610028805</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.309973782257785</v>
       </c>
       <c r="M6">
-        <v>0.8573022752749679</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.483653138519216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.883001433126026</v>
+        <v>1.909910913621786</v>
       </c>
       <c r="C7">
-        <v>0.8111327839152978</v>
+        <v>0.2160251700903473</v>
       </c>
       <c r="D7">
-        <v>0.008064267265578628</v>
+        <v>0.05373743906208972</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.148592190560151</v>
+        <v>1.856513927761171</v>
       </c>
       <c r="G7">
-        <v>0.0007907655947444938</v>
+        <v>0.0008166090333827853</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.102535765062527</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.15638057740383</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4066138768399767</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3234668033416028</v>
       </c>
       <c r="M7">
-        <v>0.9029168584708103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.526719921065023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.306750605789034</v>
+        <v>2.322579104814224</v>
       </c>
       <c r="C8">
-        <v>0.9969269553657227</v>
+        <v>0.2461463810338955</v>
       </c>
       <c r="D8">
-        <v>0.007573718457328127</v>
+        <v>0.0524912261644559</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.516476236915878</v>
+        <v>2.114595866633621</v>
       </c>
       <c r="G8">
-        <v>0.0007787769772893771</v>
+        <v>0.000806245338532019</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.254940613221194</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1872823426220585</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4972730913382009</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3843585617541407</v>
       </c>
       <c r="M8">
-        <v>1.108338190065908</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.723630844300317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.168544549571891</v>
+        <v>3.161942777372758</v>
       </c>
       <c r="C9">
-        <v>1.377981168498025</v>
+        <v>0.3059150383065941</v>
       </c>
       <c r="D9">
-        <v>0.006659547602362537</v>
+        <v>0.05048405877333551</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.295705137099588</v>
+        <v>2.658152528727243</v>
       </c>
       <c r="G9">
-        <v>0.000756168160351518</v>
+        <v>0.0007868775126111603</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.582694307215135</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2530607128296083</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6807693225392129</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.5099669135407652</v>
       </c>
       <c r="M9">
-        <v>1.531788790549754</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.140416891048062</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.830920577081883</v>
+        <v>3.805207935167289</v>
       </c>
       <c r="C10">
-        <v>1.673717759537453</v>
+        <v>0.350778249166396</v>
       </c>
       <c r="D10">
-        <v>0.00603167505605029</v>
+        <v>0.04934723357344595</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.918387173061433</v>
+        <v>3.088341080550521</v>
       </c>
       <c r="G10">
-        <v>0.0007399174260038416</v>
+        <v>0.0007731138365011381</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.848180005108006</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.306038794127204</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.8208144767418162</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.607492025201779</v>
       </c>
       <c r="M10">
-        <v>1.861985191697286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.471764124357705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.141396617615897</v>
+        <v>4.105738197283983</v>
       </c>
       <c r="C11">
-        <v>1.81319084499512</v>
+        <v>0.3715315188490678</v>
       </c>
       <c r="D11">
-        <v>0.005759705002363447</v>
+        <v>0.04892250892049077</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.21656444553301</v>
+        <v>3.292796426572352</v>
       </c>
       <c r="G11">
-        <v>0.0007325522591233327</v>
+        <v>0.0007669238417372383</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.976211163125626</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3315574468961699</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.8861118600824369</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.6533720218396155</v>
       </c>
       <c r="M11">
-        <v>2.01810784579618</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.629619167126748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.260562465237513</v>
+        <v>4.220881471750033</v>
       </c>
       <c r="C12">
-        <v>1.866867943817113</v>
+        <v>0.3794531781910138</v>
       </c>
       <c r="D12">
-        <v>0.005659119467082974</v>
+        <v>0.04877687059783753</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.332022393969851</v>
+        <v>3.371675441918882</v>
       </c>
       <c r="G12">
-        <v>0.0007297621784589925</v>
+        <v>0.0007645872598591246</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.025926852137601</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3414661842797742</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.9111103481096876</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.6709994558772792</v>
       </c>
       <c r="M12">
-        <v>2.078255567820932</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.690578564096924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.234822077204853</v>
+        <v>4.196020246795626</v>
       </c>
       <c r="C13">
-        <v>1.855266608276736</v>
+        <v>0.377744080020932</v>
       </c>
       <c r="D13">
-        <v>0.005680667478764612</v>
+        <v>0.04880752702206692</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.307036191071177</v>
+        <v>3.354619261861814</v>
       </c>
       <c r="G13">
-        <v>0.0007303632074583883</v>
+        <v>0.000765090202287207</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.015161495663122</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3393205069834977</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.9057136394115162</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.667191170233707</v>
       </c>
       <c r="M13">
-        <v>2.065252832425486</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.677394493371153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.151166729383363</v>
+        <v>4.115183014538502</v>
       </c>
       <c r="C14">
-        <v>1.817588664063464</v>
+        <v>0.3721818961374055</v>
       </c>
       <c r="D14">
-        <v>0.005751378755162406</v>
+        <v>0.04891021064337764</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.226009711079001</v>
+        <v>3.299255448219299</v>
       </c>
       <c r="G14">
-        <v>0.0007323227699595655</v>
+        <v>0.0007667314780127818</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.9802753943531</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3323674630821287</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.8881627859964567</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.6548169358078155</v>
       </c>
       <c r="M14">
-        <v>2.023034519613546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.634609637591822</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.100142226544904</v>
+        <v>4.065848707971043</v>
       </c>
       <c r="C15">
-        <v>1.794626978815813</v>
+        <v>0.3687835087820446</v>
       </c>
       <c r="D15">
-        <v>0.005795019065262252</v>
+        <v>0.04897514787473156</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.17672305125285</v>
+        <v>3.265539426326455</v>
       </c>
       <c r="G15">
-        <v>0.0007335227597803584</v>
+        <v>0.0007677376857941237</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.959073379457038</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.328141833867285</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.877449154626845</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.6472715371255191</v>
       </c>
       <c r="M15">
-        <v>1.997314164034407</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.608561823674009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.810837289311053</v>
+        <v>3.785743344082334</v>
       </c>
       <c r="C16">
-        <v>1.664714639453848</v>
+        <v>0.3494300036798847</v>
       </c>
       <c r="D16">
-        <v>0.006049759346930195</v>
+        <v>0.04937700640084941</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.899233433528167</v>
+        <v>3.075171947649665</v>
       </c>
       <c r="G16">
-        <v>0.0007403988998271327</v>
+        <v>0.0007735195679463686</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.839974428765899</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3044030092088974</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.8165826948828396</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.6045271061113624</v>
       </c>
       <c r="M16">
-        <v>1.851915675818731</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.461604376439126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.635887818794117</v>
+        <v>3.616068356243602</v>
       </c>
       <c r="C17">
-        <v>1.586382940482906</v>
+        <v>0.3376544237108163</v>
       </c>
       <c r="D17">
-        <v>0.006209817854323951</v>
+        <v>0.04964847163005714</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.733087376186546</v>
+        <v>2.960763431477375</v>
       </c>
       <c r="G17">
-        <v>0.0007446208969912985</v>
+        <v>0.00077708291005335</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.768895729513986</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2902305733905948</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7796793039517027</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.5787169378323114</v>
       </c>
       <c r="M17">
-        <v>1.764350045254474</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.373381893714551</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.536104386567615</v>
+        <v>3.519206362268278</v>
       </c>
       <c r="C18">
-        <v>1.541783287895953</v>
+        <v>0.3309129757801799</v>
       </c>
       <c r="D18">
-        <v>0.006303133332494326</v>
+        <v>0.04981318061895834</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.638901104675853</v>
+        <v>2.895770097602934</v>
       </c>
       <c r="G18">
-        <v>0.000747052196392192</v>
+        <v>0.0007791393360415015</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.728683560845042</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2822096293293299</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7586002266754051</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.5640118481824885</v>
       </c>
       <c r="M18">
-        <v>1.714529135413613</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.32329852156164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.502456436069508</v>
+        <v>3.48653029306081</v>
       </c>
       <c r="C19">
-        <v>1.526756499351848</v>
+        <v>0.3286354824715403</v>
       </c>
       <c r="D19">
-        <v>0.006334931694679469</v>
+        <v>0.04987036664235234</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.607236533248368</v>
+        <v>2.873898251361283</v>
       </c>
       <c r="G19">
-        <v>0.0007478760328761824</v>
+        <v>0.0007798368688864241</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.715178286445706</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2795151727659615</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.751487199177177</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.5590560265604978</v>
       </c>
       <c r="M19">
-        <v>1.697749238782123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.306449975878721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.654422381267011</v>
+        <v>3.63405355600986</v>
       </c>
       <c r="C20">
-        <v>1.594673412385816</v>
+        <v>0.3389045983814611</v>
       </c>
       <c r="D20">
-        <v>0.006192646646161037</v>
+        <v>0.04961867391628516</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.750628751276025</v>
+        <v>2.972857091502021</v>
       </c>
       <c r="G20">
-        <v>0.0007441711897263361</v>
+        <v>0.0007767028927979063</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.776391520645902</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.291725453300181</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7835922476323915</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.5814497157535783</v>
       </c>
       <c r="M20">
-        <v>1.773614012892253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.382703948940431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.175692584742364</v>
+        <v>4.138888784476592</v>
       </c>
       <c r="C21">
-        <v>1.828630869518463</v>
+        <v>0.3738138234343609</v>
       </c>
       <c r="D21">
-        <v>0.005730539949650115</v>
+        <v>0.04887962089564013</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.249736569353303</v>
+        <v>3.315475926523078</v>
       </c>
       <c r="G21">
-        <v>0.0007317472713059825</v>
+        <v>0.0007662492179009118</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.990487158560427</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3344027139229908</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.8933101482965355</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.6584443553521595</v>
       </c>
       <c r="M21">
-        <v>2.035405612774596</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.647143107536365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.525836473456934</v>
+        <v>4.47674651154972</v>
       </c>
       <c r="C22">
-        <v>1.986648201011178</v>
+        <v>0.3970029457141209</v>
       </c>
       <c r="D22">
-        <v>0.005442809964145034</v>
+        <v>0.04848629002734128</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.591001777600269</v>
+        <v>3.547995750953163</v>
       </c>
       <c r="G22">
-        <v>0.000723618443188555</v>
+        <v>0.000759458903138836</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.137710278597524</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.363750001477392</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.966625705354943</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.7102635438385505</v>
       </c>
       <c r="M22">
-        <v>2.212596134829511</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.826955021556003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.337987426286361</v>
+        <v>4.295626873243634</v>
       </c>
       <c r="C23">
-        <v>1.901786511775981</v>
+        <v>0.384587357795624</v>
       </c>
       <c r="D23">
-        <v>0.005594899920741803</v>
+        <v>0.04868730162636581</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.407332843002393</v>
+        <v>3.423036875031727</v>
       </c>
       <c r="G23">
-        <v>0.0007279596564197255</v>
+        <v>0.0007630802221518592</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.058395554288737</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3479379211447124</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9273328139777988</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.6824564510013715</v>
       </c>
       <c r="M23">
-        <v>2.117401690692958</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.730288708612761</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.646040442401841</v>
+        <v>3.625920324089407</v>
       </c>
       <c r="C24">
-        <v>1.590923948392685</v>
+        <v>0.3383393066503118</v>
       </c>
       <c r="D24">
-        <v>0.006200405745829585</v>
+        <v>0.04963211869124606</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.742694171934829</v>
+        <v>2.967387127669383</v>
       </c>
       <c r="G24">
-        <v>0.0007443744895279943</v>
+        <v>0.0007768746740064337</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.77300065674352</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2910492256040982</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7818227817123002</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5802138136130566</v>
       </c>
       <c r="M24">
-        <v>1.769424160962259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.378487475675215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.931117342644711</v>
+        <v>2.930855375882686</v>
       </c>
       <c r="C25">
-        <v>1.272577687658895</v>
+        <v>0.2896208252457626</v>
       </c>
       <c r="D25">
-        <v>0.006900384874064969</v>
+        <v>0.05097349154612374</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.077295361348746</v>
+        <v>2.506323326452957</v>
       </c>
       <c r="G25">
-        <v>0.0007622060189175539</v>
+        <v>0.0007920260360052064</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.490263442335831</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2345706411135851</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6303487603798175</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.475181748562207</v>
       </c>
       <c r="M25">
-        <v>1.414410070328344</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.02376174741012</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.436156536400404</v>
+        <v>3.592477463002297</v>
       </c>
       <c r="C2">
-        <v>0.2543379220983581</v>
+        <v>0.933916500477693</v>
       </c>
       <c r="D2">
-        <v>0.05218078173654206</v>
+        <v>0.10184099512378</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.186791212351665</v>
+        <v>0.1391513197244052</v>
       </c>
       <c r="G2">
-        <v>0.0008035058586255408</v>
+        <v>0.057115014715027</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.08239138507840593</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.04403016309032015</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5221658288159361</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4012280180526204</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.778842516235017</v>
+        <v>0.2452258428998562</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.108833722762483</v>
+        <v>3.138868221671487</v>
       </c>
       <c r="C3">
-        <v>0.2306206263838533</v>
+        <v>0.8232714866656465</v>
       </c>
       <c r="D3">
-        <v>0.0531124850136635</v>
+        <v>0.0888441283913366</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.980047767086802</v>
+        <v>0.1307560384223159</v>
       </c>
       <c r="G3">
-        <v>0.0008115264115006789</v>
+        <v>0.05446179271195817</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.08703141082760624</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.05197707444776256</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4503606030974296</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3527361520188634</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.620877829639753</v>
+        <v>0.2489919452398155</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.91099162702551</v>
+        <v>2.859948865057447</v>
       </c>
       <c r="C4">
-        <v>0.2161048877955096</v>
+        <v>0.7552451971466496</v>
       </c>
       <c r="D4">
-        <v>0.05373391395553995</v>
+        <v>0.08085226148192959</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.857180355963166</v>
+        <v>0.1263023286149831</v>
       </c>
       <c r="G4">
-        <v>0.000816580934183525</v>
+        <v>0.05345020289398406</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.09029325090029872</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.05740827056979914</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4068517971899794</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3236253689815385</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.527227356166804</v>
+        <v>0.2534703097849729</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.831053330230219</v>
+        <v>2.746167190079746</v>
       </c>
       <c r="C5">
-        <v>0.2101948718065785</v>
+        <v>0.7274975762815359</v>
       </c>
       <c r="D5">
-        <v>0.05399867422082139</v>
+        <v>0.07759205026607674</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.808032327307743</v>
+        <v>0.1246533447880225</v>
       </c>
       <c r="G5">
-        <v>0.0008186748627844343</v>
+        <v>0.05318332992389685</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.09172185577687131</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.05975359317575846</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3892452969274558</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.311910586996035</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.489821014920835</v>
+        <v>0.2558096087831956</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.817818056915797</v>
+        <v>2.727266076511853</v>
       </c>
       <c r="C6">
-        <v>0.2092136574895704</v>
+        <v>0.7228884099385198</v>
       </c>
       <c r="D6">
-        <v>0.05404330902430843</v>
+        <v>0.07705047151738142</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.799924130771643</v>
+        <v>0.1243892599076091</v>
       </c>
       <c r="G6">
-        <v>0.0008190246638170377</v>
+        <v>0.05314751263873063</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0919649504030744</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.06015081839450875</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.386328610028805</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.309973782257785</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.483653138519216</v>
+        <v>0.2562282480775622</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.909910913621786</v>
+        <v>2.858414874278878</v>
       </c>
       <c r="C7">
-        <v>0.2160251700903473</v>
+        <v>0.7548710944661252</v>
       </c>
       <c r="D7">
-        <v>0.05373743906208972</v>
+        <v>0.08080830779097425</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.856513927761171</v>
+        <v>0.1262794313316853</v>
       </c>
       <c r="G7">
-        <v>0.0008166090333827853</v>
+        <v>0.05344602802098919</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.09031212091656826</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0574393743122652</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4066138768399767</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3234668033416028</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.526719921065023</v>
+        <v>0.2534998150793299</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.322579104814224</v>
+        <v>3.436144356446675</v>
       </c>
       <c r="C8">
-        <v>0.2461463810338955</v>
+        <v>0.8957823215174017</v>
       </c>
       <c r="D8">
-        <v>0.0524912261644559</v>
+        <v>0.09736179010828039</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.114595866633621</v>
+        <v>0.1361047774321165</v>
       </c>
       <c r="G8">
-        <v>0.000806245338532019</v>
+        <v>0.05606592969380486</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.08390285676565057</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.04665164044070824</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4972730913382009</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3843585617541407</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.723630844300317</v>
+        <v>0.2460562263951118</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.161942777372758</v>
+        <v>4.566870275420399</v>
       </c>
       <c r="C9">
-        <v>0.3059150383065941</v>
+        <v>1.17159862127329</v>
       </c>
       <c r="D9">
-        <v>0.05048405877333551</v>
+        <v>0.1297563725947555</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.658152528727243</v>
+        <v>0.1614215520736195</v>
       </c>
       <c r="G9">
-        <v>0.0007868775126111603</v>
+        <v>0.06656984781426445</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.07481835090564459</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.03018814623975707</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6807693225392129</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5099669135407652</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.140416891048062</v>
+        <v>0.2500713783235113</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.805207935167289</v>
+        <v>5.397844906154603</v>
       </c>
       <c r="C10">
-        <v>0.350778249166396</v>
+        <v>1.374258584240522</v>
       </c>
       <c r="D10">
-        <v>0.04934723357344595</v>
+        <v>0.1535577458592883</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.088341080550521</v>
+        <v>0.1844183928869469</v>
       </c>
       <c r="G10">
-        <v>0.0007731138365011381</v>
+        <v>0.07823751143630631</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.07057042300028371</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.02140631403464432</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8208144767418162</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.607492025201779</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.471764124357705</v>
+        <v>0.2664412502755198</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.105738197283983</v>
+        <v>5.776313753851639</v>
       </c>
       <c r="C11">
-        <v>0.3715315188490678</v>
+        <v>1.466539498599104</v>
       </c>
       <c r="D11">
-        <v>0.04892250892049077</v>
+        <v>0.1643960072828321</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.292796426572352</v>
+        <v>0.1960005632983908</v>
       </c>
       <c r="G11">
-        <v>0.0007669238417372383</v>
+        <v>0.08456212732421875</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.06923559751754027</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01823681697378454</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8861118600824369</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6533720218396155</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.629619167126748</v>
+        <v>0.277287575293812</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.220881471750033</v>
+        <v>5.919728728457244</v>
       </c>
       <c r="C12">
-        <v>0.3794531781910138</v>
+        <v>1.501503827198349</v>
       </c>
       <c r="D12">
-        <v>0.04877687059783753</v>
+        <v>0.1685026057648997</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.371675441918882</v>
+        <v>0.2005622343290199</v>
       </c>
       <c r="G12">
-        <v>0.0007645872598591246</v>
+        <v>0.08711741934836681</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06882236001220576</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.0171647187935422</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9111103481096876</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6709994558772792</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.690578564096924</v>
+        <v>0.2819267190626817</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.196020246795626</v>
+        <v>5.888836898714089</v>
       </c>
       <c r="C13">
-        <v>0.377744080020932</v>
+        <v>1.493972652200853</v>
       </c>
       <c r="D13">
-        <v>0.04880752702206692</v>
+        <v>0.1676180565752219</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.354619261861814</v>
+        <v>0.1995717385408824</v>
       </c>
       <c r="G13">
-        <v>0.000765090202287207</v>
+        <v>0.08655972913911825</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.06890715162643346</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01738975999299974</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9057136394115162</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.667191170233707</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.677394493371153</v>
+        <v>0.2809032280936776</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.115183014538502</v>
+        <v>5.788110454332184</v>
       </c>
       <c r="C14">
-        <v>0.3721818961374055</v>
+        <v>1.469415603120126</v>
       </c>
       <c r="D14">
-        <v>0.04891021064337764</v>
+        <v>0.1647338069224418</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.299255448219299</v>
+        <v>0.1963722456885719</v>
       </c>
       <c r="G14">
-        <v>0.0007667314780127818</v>
+        <v>0.0847690565437631</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.06919971429747562</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01814599107799353</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8881627859964567</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6548169358078155</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.634609637591822</v>
+        <v>0.2776583251290674</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.065848707971043</v>
+        <v>5.726426221798476</v>
       </c>
       <c r="C15">
-        <v>0.3687835087820446</v>
+        <v>1.454376453994428</v>
       </c>
       <c r="D15">
-        <v>0.04897514787473156</v>
+        <v>0.1629674565496231</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.265539426326455</v>
+        <v>0.1944358000655626</v>
       </c>
       <c r="G15">
-        <v>0.0007677376857941237</v>
+        <v>0.08369352522880291</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.06939112222762844</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01862617895603069</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.877449154626845</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6472715371255191</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.608561823674009</v>
+        <v>0.2757413155829056</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.785743344082334</v>
+        <v>5.373122869402039</v>
       </c>
       <c r="C16">
-        <v>0.3494300036798847</v>
+        <v>1.368230171065647</v>
       </c>
       <c r="D16">
-        <v>0.04937700640084941</v>
+        <v>0.1528497276712386</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.075171947649665</v>
+        <v>0.1836852513318519</v>
       </c>
       <c r="G16">
-        <v>0.0007735195679463686</v>
+        <v>0.07784582925867056</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.0706702118165552</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.0216308509768055</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8165826948828396</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6045271061113624</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.461604376439126</v>
+        <v>0.2658044445977481</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.616068356243602</v>
+        <v>5.156520803429032</v>
       </c>
       <c r="C17">
-        <v>0.3376544237108163</v>
+        <v>1.315409767538142</v>
       </c>
       <c r="D17">
-        <v>0.04964847163005714</v>
+        <v>0.1466461812860871</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.960763431477375</v>
+        <v>0.1773873097152432</v>
       </c>
       <c r="G17">
-        <v>0.00077708291005335</v>
+        <v>0.07452866210123688</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.07161231128549872</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.02369206400164803</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7796793039517027</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5787169378323114</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.373381893714551</v>
+        <v>0.2606090162676651</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.519206362268278</v>
+        <v>5.031977732890141</v>
       </c>
       <c r="C18">
-        <v>0.3309129757801799</v>
+        <v>1.285036897179282</v>
       </c>
       <c r="D18">
-        <v>0.04981318061895834</v>
+        <v>0.1430790385335996</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.895770097602934</v>
+        <v>0.1738694718790796</v>
       </c>
       <c r="G18">
-        <v>0.0007791393360415015</v>
+        <v>0.07271554380117351</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07221002992537962</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.02495471393790538</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7586002266754051</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5640118481824885</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.32329852156164</v>
+        <v>0.257938004789807</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.48653029306081</v>
+        <v>4.989815657548547</v>
       </c>
       <c r="C19">
-        <v>0.3286354824715403</v>
+        <v>1.274754351731417</v>
       </c>
       <c r="D19">
-        <v>0.04987036664235234</v>
+        <v>0.14187140854483</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.873898251361283</v>
+        <v>0.1726959221666178</v>
       </c>
       <c r="G19">
-        <v>0.0007798368688864241</v>
+        <v>0.07211752512564118</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.07242181324530605</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.02539518812495789</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.751487199177177</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5590560265604978</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.306449975878721</v>
+        <v>0.2570868670787689</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.63405355600986</v>
+        <v>5.17957402858292</v>
       </c>
       <c r="C20">
-        <v>0.3389045983814611</v>
+        <v>1.321031712593935</v>
       </c>
       <c r="D20">
-        <v>0.04961867391628516</v>
+        <v>0.1473064529645995</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.972857091502021</v>
+        <v>0.1780468106627495</v>
       </c>
       <c r="G20">
-        <v>0.0007767028927979063</v>
+        <v>0.07487186663028922</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.07150619869858588</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02346459877817342</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7835922476323915</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5814497157535783</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.382703948940431</v>
+        <v>0.2611289397074188</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.138888784476592</v>
+        <v>5.817693353314837</v>
       </c>
       <c r="C21">
-        <v>0.3738138234343609</v>
+        <v>1.476628017428766</v>
       </c>
       <c r="D21">
-        <v>0.04887962089564013</v>
+        <v>0.165580909426879</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.315475926523078</v>
+        <v>0.1973071238009538</v>
       </c>
       <c r="G21">
-        <v>0.0007662492179009118</v>
+        <v>0.08529055374752659</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.06911122628206101</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01792031259218874</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8933101482965355</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6584443553521595</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.647143107536365</v>
+        <v>0.2785966409907843</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.47674651154972</v>
+        <v>6.235323456382389</v>
       </c>
       <c r="C22">
-        <v>0.3970029457141209</v>
+        <v>1.578436645699355</v>
       </c>
       <c r="D22">
-        <v>0.04848629002734128</v>
+        <v>0.1775386452043222</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.547995750953163</v>
+        <v>0.2109266897233724</v>
       </c>
       <c r="G22">
-        <v>0.000759458903138836</v>
+        <v>0.09304125537143193</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.06808677635621763</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01504837264944392</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.966625705354943</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7102635438385505</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.826955021556003</v>
+        <v>0.293134852564549</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.295626873243634</v>
+        <v>6.012361962925468</v>
       </c>
       <c r="C23">
-        <v>0.384587357795624</v>
+        <v>1.524086374580577</v>
       </c>
       <c r="D23">
-        <v>0.04868730162636581</v>
+        <v>0.1711549792792937</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.423036875031727</v>
+        <v>0.2035582081882694</v>
       </c>
       <c r="G23">
-        <v>0.0007630802221518592</v>
+        <v>0.08881354120026685</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.06858187779801739</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01650915014611698</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9273328139777988</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6824564510013715</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.730288708612761</v>
+        <v>0.2850749609380472</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.625920324089407</v>
+        <v>5.169151716624867</v>
       </c>
       <c r="C24">
-        <v>0.3383393066503118</v>
+        <v>1.318490049534205</v>
       </c>
       <c r="D24">
-        <v>0.04963211869124606</v>
+        <v>0.1470079461971636</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.967387127669383</v>
+        <v>0.1777483307649916</v>
       </c>
       <c r="G24">
-        <v>0.0007768746740064337</v>
+        <v>0.07471641223542491</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.07155399795367146</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.02356719470892088</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7818227817123002</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5802138136130566</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.378487475675215</v>
+        <v>0.2608929015559482</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.930855375882686</v>
+        <v>4.261060032419039</v>
       </c>
       <c r="C25">
-        <v>0.2896208252457626</v>
+        <v>1.097005432573155</v>
       </c>
       <c r="D25">
-        <v>0.05097349154612374</v>
+        <v>0.1209957983107159</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.506323326452957</v>
+        <v>0.1538541634322712</v>
       </c>
       <c r="G25">
-        <v>0.0007920260360052064</v>
+        <v>0.06308587898031703</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.07687272237001253</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.03409432031945503</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6303487603798175</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.475181748562207</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.02376174741012</v>
+        <v>0.2467853366205404</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.592477463002297</v>
+        <v>1.195012493665558</v>
       </c>
       <c r="C2">
-        <v>0.933916500477693</v>
+        <v>0.327957343722403</v>
       </c>
       <c r="D2">
-        <v>0.10184099512378</v>
+        <v>0.03309288413318257</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1391513197244052</v>
+        <v>0.2359276067140001</v>
       </c>
       <c r="G2">
-        <v>0.057115014715027</v>
+        <v>0.1078855475638427</v>
       </c>
       <c r="H2">
-        <v>0.08239138507840593</v>
+        <v>0.2908243665929504</v>
       </c>
       <c r="I2">
-        <v>0.04403016309032015</v>
+        <v>0.1798627263767711</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2452258428998562</v>
+        <v>0.6885568647115008</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.138868221671487</v>
+        <v>1.043721088755092</v>
       </c>
       <c r="C3">
-        <v>0.8232714866656465</v>
+        <v>0.2908277482814015</v>
       </c>
       <c r="D3">
-        <v>0.0888441283913366</v>
+        <v>0.02887247580594732</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1307560384223159</v>
+        <v>0.2385816126413189</v>
       </c>
       <c r="G3">
-        <v>0.05446179271195817</v>
+        <v>0.1107947158929079</v>
       </c>
       <c r="H3">
-        <v>0.08703141082760624</v>
+        <v>0.2959752681811096</v>
       </c>
       <c r="I3">
-        <v>0.05197707444776256</v>
+        <v>0.185723227919536</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.2489919452398155</v>
+        <v>0.705287198323262</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.859948865057447</v>
+        <v>0.9504172635526515</v>
       </c>
       <c r="C4">
-        <v>0.7552451971466496</v>
+        <v>0.2679376871411137</v>
       </c>
       <c r="D4">
-        <v>0.08085226148192959</v>
+        <v>0.02627159485948027</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1263023286149831</v>
+        <v>0.2405130863643876</v>
       </c>
       <c r="G4">
-        <v>0.05345020289398406</v>
+        <v>0.1128013793998974</v>
       </c>
       <c r="H4">
-        <v>0.09029325090029872</v>
+        <v>0.299363065846908</v>
       </c>
       <c r="I4">
-        <v>0.05740827056979914</v>
+        <v>0.1895597620483036</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2534703097849729</v>
+        <v>0.7164909371449255</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.746167190079746</v>
+        <v>0.9122951964980643</v>
       </c>
       <c r="C5">
-        <v>0.7274975762815359</v>
+        <v>0.2585874278479423</v>
       </c>
       <c r="D5">
-        <v>0.07759205026607674</v>
+        <v>0.02520939956293944</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1246533447880225</v>
+        <v>0.241375862683153</v>
       </c>
       <c r="G5">
-        <v>0.05318332992389685</v>
+        <v>0.1136742289914281</v>
       </c>
       <c r="H5">
-        <v>0.09172185577687131</v>
+        <v>0.3008001567177452</v>
       </c>
       <c r="I5">
-        <v>0.05975359317575846</v>
+        <v>0.191182890128144</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2558096087831956</v>
+        <v>0.7212899080044579</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.727266076511853</v>
+        <v>0.9059591102536046</v>
       </c>
       <c r="C6">
-        <v>0.7228884099385198</v>
+        <v>0.2570334981167264</v>
       </c>
       <c r="D6">
-        <v>0.07705047151738142</v>
+        <v>0.02503288542973792</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1243892599076091</v>
+        <v>0.2415236904206779</v>
       </c>
       <c r="G6">
-        <v>0.05314751263873063</v>
+        <v>0.1138224848919513</v>
       </c>
       <c r="H6">
-        <v>0.0919649504030744</v>
+        <v>0.3010421970289769</v>
       </c>
       <c r="I6">
-        <v>0.06015081839450875</v>
+        <v>0.1914560103617262</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2562282480775622</v>
+        <v>0.7221008436751291</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.858414874278878</v>
+        <v>0.9499035367047099</v>
       </c>
       <c r="C7">
-        <v>0.7548710944661252</v>
+        <v>0.2678116757394946</v>
       </c>
       <c r="D7">
-        <v>0.08080830779097425</v>
+        <v>0.02625727898713848</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1262794313316853</v>
+        <v>0.2405244159283981</v>
       </c>
       <c r="G7">
-        <v>0.05344602802098919</v>
+        <v>0.1128129281946606</v>
       </c>
       <c r="H7">
-        <v>0.09031212091656826</v>
+        <v>0.299382218143144</v>
       </c>
       <c r="I7">
-        <v>0.0574393743122652</v>
+        <v>0.1895814105971727</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.2534998150793299</v>
+        <v>0.716554713973224</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.436144356446675</v>
+        <v>1.142934222112103</v>
       </c>
       <c r="C8">
-        <v>0.8957823215174017</v>
+        <v>0.3151747186313401</v>
       </c>
       <c r="D8">
-        <v>0.09736179010828039</v>
+        <v>0.03163971378531016</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1361047774321165</v>
+        <v>0.2367799093135154</v>
       </c>
       <c r="G8">
-        <v>0.05606592969380486</v>
+        <v>0.1088426950969676</v>
       </c>
       <c r="H8">
-        <v>0.08390285676565057</v>
+        <v>0.2925536297221214</v>
       </c>
       <c r="I8">
-        <v>0.04665164044070824</v>
+        <v>0.1818338901303411</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.2460562263951118</v>
+        <v>0.6941317176824882</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.566870275420399</v>
+        <v>1.518090439092873</v>
       </c>
       <c r="C9">
-        <v>1.17159862127329</v>
+        <v>0.4072881913667743</v>
       </c>
       <c r="D9">
-        <v>0.1297563725947555</v>
+        <v>0.04211590599184944</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1614215520736195</v>
+        <v>0.2318429293622373</v>
       </c>
       <c r="G9">
-        <v>0.06656984781426445</v>
+        <v>0.1028197904265085</v>
       </c>
       <c r="H9">
-        <v>0.07481835090564459</v>
+        <v>0.280952169741024</v>
       </c>
       <c r="I9">
-        <v>0.03018814623975707</v>
+        <v>0.1685384926978779</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2500713783235113</v>
+        <v>0.6575852366608856</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.397844906154603</v>
+        <v>1.791523916020253</v>
       </c>
       <c r="C10">
-        <v>1.374258584240522</v>
+        <v>0.4744601906764387</v>
       </c>
       <c r="D10">
-        <v>0.1535577458592883</v>
+        <v>0.04976131823518415</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1844183928869469</v>
+        <v>0.2296971834258414</v>
       </c>
       <c r="G10">
-        <v>0.07823751143630631</v>
+        <v>0.0994881274531707</v>
       </c>
       <c r="H10">
-        <v>0.07057042300028371</v>
+        <v>0.2735235100196789</v>
       </c>
       <c r="I10">
-        <v>0.02140631403464432</v>
+        <v>0.1599374023737221</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.2664412502755198</v>
+        <v>0.6353096062943706</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.776313753851639</v>
+        <v>1.91541280536012</v>
       </c>
       <c r="C11">
-        <v>1.466539498599104</v>
+        <v>0.5049016903568031</v>
       </c>
       <c r="D11">
-        <v>0.1643960072828321</v>
+        <v>0.05322756170164666</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1960005632983908</v>
+        <v>0.2290458425457587</v>
       </c>
       <c r="G11">
-        <v>0.08456212732421875</v>
+        <v>0.09821386278927235</v>
       </c>
       <c r="H11">
-        <v>0.06923559751754027</v>
+        <v>0.270382633483905</v>
       </c>
       <c r="I11">
-        <v>0.01823681697378454</v>
+        <v>0.156280140333366</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.277287575293812</v>
+        <v>0.6261795788326197</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.919728728457244</v>
+        <v>1.962251998559509</v>
       </c>
       <c r="C12">
-        <v>1.501503827198349</v>
+        <v>0.5164117504726278</v>
       </c>
       <c r="D12">
-        <v>0.1685026057648997</v>
+        <v>0.0545383833739379</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.2005622343290199</v>
+        <v>0.2288461437004941</v>
       </c>
       <c r="G12">
-        <v>0.08711741934836681</v>
+        <v>0.09776635674497669</v>
       </c>
       <c r="H12">
-        <v>0.06882236001220576</v>
+        <v>0.2692276321599536</v>
       </c>
       <c r="I12">
-        <v>0.0171647187935422</v>
+        <v>0.1549321477180339</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2819267190626817</v>
+        <v>0.6228673931974384</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.888836898714089</v>
+        <v>1.952167721342619</v>
       </c>
       <c r="C13">
-        <v>1.493972652200853</v>
+        <v>0.5139336442889544</v>
       </c>
       <c r="D13">
-        <v>0.1676180565752219</v>
+        <v>0.05425615457097877</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.1995717385408824</v>
+        <v>0.2288870603905053</v>
       </c>
       <c r="G13">
-        <v>0.08655972913911825</v>
+        <v>0.09786117199929834</v>
       </c>
       <c r="H13">
-        <v>0.06890715162643346</v>
+        <v>0.2694748518472565</v>
       </c>
       <c r="I13">
-        <v>0.01738975999299974</v>
+        <v>0.1552208161845838</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.2809032280936776</v>
+        <v>0.6235742616331379</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.788110454332184</v>
+        <v>1.919267812801252</v>
       </c>
       <c r="C14">
-        <v>1.469415603120126</v>
+        <v>0.5058489851924151</v>
       </c>
       <c r="D14">
-        <v>0.1647338069224418</v>
+        <v>0.05333543975606858</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.1963722456885719</v>
+        <v>0.2290284708450727</v>
       </c>
       <c r="G14">
-        <v>0.0847690565437631</v>
+        <v>0.09817634226764227</v>
       </c>
       <c r="H14">
-        <v>0.06919971429747562</v>
+        <v>0.2702869212785259</v>
       </c>
       <c r="I14">
-        <v>0.01814599107799353</v>
+        <v>0.1561684988049166</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2776583251290674</v>
+        <v>0.6259041690850751</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.726426221798476</v>
+        <v>1.899105824388585</v>
       </c>
       <c r="C15">
-        <v>1.454376453994428</v>
+        <v>0.5008945961739073</v>
       </c>
       <c r="D15">
-        <v>0.1629674565496231</v>
+        <v>0.05277124229816366</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.1944358000655626</v>
+        <v>0.2291212104047773</v>
       </c>
       <c r="G15">
-        <v>0.08369352522880291</v>
+        <v>0.09837396483197125</v>
       </c>
       <c r="H15">
-        <v>0.06939112222762844</v>
+        <v>0.2707888172766602</v>
       </c>
       <c r="I15">
-        <v>0.01862617895603069</v>
+        <v>0.1567537976193609</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2757413155829056</v>
+        <v>0.6273502347441138</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.373122869402039</v>
+        <v>1.783417192997092</v>
       </c>
       <c r="C16">
-        <v>1.368230171065647</v>
+        <v>0.4724683696379657</v>
       </c>
       <c r="D16">
-        <v>0.1528497276712386</v>
+        <v>0.04953454824359937</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.1836852513318519</v>
+        <v>0.229746306572288</v>
       </c>
       <c r="G16">
-        <v>0.07784582925867056</v>
+        <v>0.09957628782971284</v>
       </c>
       <c r="H16">
-        <v>0.0706702118165552</v>
+        <v>0.2737335798226184</v>
       </c>
       <c r="I16">
-        <v>0.0216308509768055</v>
+        <v>0.1601815701853946</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2658044445977481</v>
+        <v>0.6359265395235667</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.156520803429032</v>
+        <v>1.712316205624575</v>
       </c>
       <c r="C17">
-        <v>1.315409767538142</v>
+        <v>0.4549996177792082</v>
       </c>
       <c r="D17">
-        <v>0.1466461812860871</v>
+        <v>0.04754588365759105</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.1773873097152432</v>
+        <v>0.2302131417114879</v>
       </c>
       <c r="G17">
-        <v>0.07452866210123688</v>
+        <v>0.10037591749564</v>
       </c>
       <c r="H17">
-        <v>0.07161231128549872</v>
+        <v>0.2756012356755235</v>
       </c>
       <c r="I17">
-        <v>0.02369206400164803</v>
+        <v>0.162349961727621</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2606090162676651</v>
+        <v>0.6414454204320208</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.031977732890141</v>
+        <v>1.671374179944735</v>
       </c>
       <c r="C18">
-        <v>1.285036897179282</v>
+        <v>0.4449412460112399</v>
       </c>
       <c r="D18">
-        <v>0.1430790385335996</v>
+        <v>0.04640096103616997</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.1738694718790796</v>
+        <v>0.2305122071320156</v>
       </c>
       <c r="G18">
-        <v>0.07271554380117351</v>
+        <v>0.1008585385842125</v>
       </c>
       <c r="H18">
-        <v>0.07221002992537962</v>
+        <v>0.2766979013562647</v>
       </c>
       <c r="I18">
-        <v>0.02495471393790538</v>
+        <v>0.1636211920646389</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.257938004789807</v>
+        <v>0.6447141144413138</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.989815657548547</v>
+        <v>1.657504008393857</v>
       </c>
       <c r="C19">
-        <v>1.274754351731417</v>
+        <v>0.441533824964722</v>
       </c>
       <c r="D19">
-        <v>0.14187140854483</v>
+        <v>0.04601312447077532</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.1726959221666178</v>
+        <v>0.2306187056451279</v>
       </c>
       <c r="G19">
-        <v>0.07211752512564118</v>
+        <v>0.101025833688162</v>
       </c>
       <c r="H19">
-        <v>0.07242181324530605</v>
+        <v>0.2770730647387083</v>
       </c>
       <c r="I19">
-        <v>0.02539518812495789</v>
+        <v>0.1640557295574077</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2570868670787689</v>
+        <v>0.6458370206766233</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.17957402858292</v>
+        <v>1.719889876057721</v>
       </c>
       <c r="C20">
-        <v>1.321031712593935</v>
+        <v>0.4568603212208018</v>
       </c>
       <c r="D20">
-        <v>0.1473064529645995</v>
+        <v>0.04775769440226441</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.1780468106627495</v>
+        <v>0.2301602822621049</v>
       </c>
       <c r="G20">
-        <v>0.07487186663028922</v>
+        <v>0.1002884442954439</v>
       </c>
       <c r="H20">
-        <v>0.07150619869858588</v>
+        <v>0.27540009746739</v>
       </c>
       <c r="I20">
-        <v>0.02346459877817342</v>
+        <v>0.1621166443653008</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2611289397074188</v>
+        <v>0.6408481517358382</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.817693353314837</v>
+        <v>1.928933370906407</v>
       </c>
       <c r="C21">
-        <v>1.476628017428766</v>
+        <v>0.5082241268207781</v>
       </c>
       <c r="D21">
-        <v>0.165580909426879</v>
+        <v>0.05360592474002601</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.1973071238009538</v>
+        <v>0.2289856589973098</v>
       </c>
       <c r="G21">
-        <v>0.08529055374752659</v>
+        <v>0.09808281580544786</v>
       </c>
       <c r="H21">
-        <v>0.06911122628206101</v>
+        <v>0.2700474630084528</v>
       </c>
       <c r="I21">
-        <v>0.01792031259218874</v>
+        <v>0.1558891374652012</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.2785966409907843</v>
+        <v>0.6252158722030572</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.235323456382389</v>
+        <v>2.065117631210001</v>
       </c>
       <c r="C22">
-        <v>1.578436645699355</v>
+        <v>0.5416910795636909</v>
       </c>
       <c r="D22">
-        <v>0.1775386452043222</v>
+        <v>0.05741772671812839</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.2109266897233724</v>
+        <v>0.228491747461419</v>
       </c>
       <c r="G22">
-        <v>0.09304125537143193</v>
+        <v>0.09684564406059337</v>
       </c>
       <c r="H22">
-        <v>0.06808677635621763</v>
+        <v>0.2667496440779402</v>
       </c>
       <c r="I22">
-        <v>0.01504837264944392</v>
+        <v>0.152034470861909</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.293134852564549</v>
+        <v>0.615845771165084</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.012361962925468</v>
+        <v>1.992474671905768</v>
       </c>
       <c r="C23">
-        <v>1.524086374580577</v>
+        <v>0.5238387842398993</v>
       </c>
       <c r="D23">
-        <v>0.1711549792792937</v>
+        <v>0.05538427271886803</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.2035582081882694</v>
+        <v>0.228730225804668</v>
       </c>
       <c r="G23">
-        <v>0.08881354120026685</v>
+        <v>0.09748714161343486</v>
       </c>
       <c r="H23">
-        <v>0.06858187779801739</v>
+        <v>0.2684913823744495</v>
       </c>
       <c r="I23">
-        <v>0.01650915014611698</v>
+        <v>0.1540720052553501</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.2850749609380472</v>
+        <v>0.620769023966119</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.169151716624867</v>
+        <v>1.716466022245697</v>
       </c>
       <c r="C24">
-        <v>1.318490049534205</v>
+        <v>0.4560191449538138</v>
       </c>
       <c r="D24">
-        <v>0.1470079461971636</v>
+        <v>0.04766193978210254</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.1777483307649916</v>
+        <v>0.2301840844868863</v>
       </c>
       <c r="G24">
-        <v>0.07471641223542491</v>
+        <v>0.1003279196126954</v>
       </c>
       <c r="H24">
-        <v>0.07155399795367146</v>
+        <v>0.2754909606472395</v>
       </c>
       <c r="I24">
-        <v>0.02356719470892088</v>
+        <v>0.1622220505550578</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2608929015559482</v>
+        <v>0.6411178785243976</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.261060032419039</v>
+        <v>1.416976320814911</v>
       </c>
       <c r="C25">
-        <v>1.097005432573155</v>
+        <v>0.3824548638710326</v>
       </c>
       <c r="D25">
-        <v>0.1209957983107159</v>
+        <v>0.03929060586338551</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.1538541634322712</v>
+        <v>0.2329194067134601</v>
       </c>
       <c r="G25">
-        <v>0.06308587898031703</v>
+        <v>0.1042584865482041</v>
       </c>
       <c r="H25">
-        <v>0.07687272237001253</v>
+        <v>0.2838986827935237</v>
       </c>
       <c r="I25">
-        <v>0.03409432031945503</v>
+        <v>0.1719310481100571</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2467853366205404</v>
+        <v>0.6666720873480827</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.195012493665558</v>
+        <v>3.592477463002353</v>
       </c>
       <c r="C2">
-        <v>0.327957343722403</v>
+        <v>0.9339165004772667</v>
       </c>
       <c r="D2">
-        <v>0.03309288413318257</v>
+        <v>0.1018409951239221</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2359276067140001</v>
+        <v>0.1391513197244301</v>
       </c>
       <c r="G2">
-        <v>0.1078855475638427</v>
+        <v>0.05711501471497371</v>
       </c>
       <c r="H2">
-        <v>0.2908243665929504</v>
+        <v>0.08239138507851962</v>
       </c>
       <c r="I2">
-        <v>0.1798627263767711</v>
+        <v>0.04403016309031926</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6885568647115008</v>
+        <v>0.2452258428998562</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.043721088755092</v>
+        <v>3.138868221671487</v>
       </c>
       <c r="C3">
-        <v>0.2908277482814015</v>
+        <v>0.8232714866656465</v>
       </c>
       <c r="D3">
-        <v>0.02887247580594732</v>
+        <v>0.08884412839137212</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2385816126413189</v>
+        <v>0.1307560384223194</v>
       </c>
       <c r="G3">
-        <v>0.1107947158929079</v>
+        <v>0.05446179271190132</v>
       </c>
       <c r="H3">
-        <v>0.2959752681811096</v>
+        <v>0.08703141082749255</v>
       </c>
       <c r="I3">
-        <v>0.185723227919536</v>
+        <v>0.05197707444777588</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.705287198323262</v>
+        <v>0.2489919452398155</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9504172635526515</v>
+        <v>2.859948865057618</v>
       </c>
       <c r="C4">
-        <v>0.2679376871411137</v>
+        <v>0.755245197146877</v>
       </c>
       <c r="D4">
-        <v>0.02627159485948027</v>
+        <v>0.08085226148205749</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2405130863643876</v>
+        <v>0.1263023286149831</v>
       </c>
       <c r="G4">
-        <v>0.1128013793998974</v>
+        <v>0.05345020289398406</v>
       </c>
       <c r="H4">
-        <v>0.299363065846908</v>
+        <v>0.09029325090018503</v>
       </c>
       <c r="I4">
-        <v>0.1895597620483036</v>
+        <v>0.05740827056979825</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7164909371449255</v>
+        <v>0.2534703097850297</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9122951964980643</v>
+        <v>2.746167190079689</v>
       </c>
       <c r="C5">
-        <v>0.2585874278479423</v>
+        <v>0.7274975762815927</v>
       </c>
       <c r="D5">
-        <v>0.02520939956293944</v>
+        <v>0.07759205026604832</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.241375862683153</v>
+        <v>0.1246533447879905</v>
       </c>
       <c r="G5">
-        <v>0.1136742289914281</v>
+        <v>0.05318332992391461</v>
       </c>
       <c r="H5">
-        <v>0.3008001567177452</v>
+        <v>0.09172185577675407</v>
       </c>
       <c r="I5">
-        <v>0.191182890128144</v>
+        <v>0.0597535931757549</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7212899080044579</v>
+        <v>0.2558096087831316</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9059591102536046</v>
+        <v>2.72726607651208</v>
       </c>
       <c r="C6">
-        <v>0.2570334981167264</v>
+        <v>0.7228884099385482</v>
       </c>
       <c r="D6">
-        <v>0.02503288542973792</v>
+        <v>0.07705047151736721</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2415236904206779</v>
+        <v>0.1243892599076091</v>
       </c>
       <c r="G6">
-        <v>0.1138224848919513</v>
+        <v>0.05314751263873774</v>
       </c>
       <c r="H6">
-        <v>0.3010421970289769</v>
+        <v>0.09196495040307084</v>
       </c>
       <c r="I6">
-        <v>0.1914560103617262</v>
+        <v>0.06015081839450698</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7221008436751291</v>
+        <v>0.2562282480775551</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9499035367047099</v>
+        <v>2.858414874278594</v>
       </c>
       <c r="C7">
-        <v>0.2678116757394946</v>
+        <v>0.7548710944660684</v>
       </c>
       <c r="D7">
-        <v>0.02625727898713848</v>
+        <v>0.08080830779095294</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2405244159283981</v>
+        <v>0.1262794313316853</v>
       </c>
       <c r="G7">
-        <v>0.1128129281946606</v>
+        <v>0.05344602802098919</v>
       </c>
       <c r="H7">
-        <v>0.299382218143144</v>
+        <v>0.09031212091656826</v>
       </c>
       <c r="I7">
-        <v>0.1895814105971727</v>
+        <v>0.05743937431226165</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.716554713973224</v>
+        <v>0.2534998150793868</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.142934222112103</v>
+        <v>3.436144356446675</v>
       </c>
       <c r="C8">
-        <v>0.3151747186313401</v>
+        <v>0.8957823215178848</v>
       </c>
       <c r="D8">
-        <v>0.03163971378531016</v>
+        <v>0.09736179010836565</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2367799093135154</v>
+        <v>0.1361047774321165</v>
       </c>
       <c r="G8">
-        <v>0.1088426950969676</v>
+        <v>0.05606592969381552</v>
       </c>
       <c r="H8">
-        <v>0.2925536297221214</v>
+        <v>0.08390285676565057</v>
       </c>
       <c r="I8">
-        <v>0.1818338901303411</v>
+        <v>0.04665164044072068</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6941317176824882</v>
+        <v>0.2460562263951616</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.518090439092873</v>
+        <v>4.566870275420399</v>
       </c>
       <c r="C9">
-        <v>0.4072881913667743</v>
+        <v>1.171598621273517</v>
       </c>
       <c r="D9">
-        <v>0.04211590599184944</v>
+        <v>0.1297563725946702</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2318429293622373</v>
+        <v>0.1614215520736195</v>
       </c>
       <c r="G9">
-        <v>0.1028197904265085</v>
+        <v>0.06656984781420761</v>
       </c>
       <c r="H9">
-        <v>0.280952169741024</v>
+        <v>0.07481835090564459</v>
       </c>
       <c r="I9">
-        <v>0.1685384926978779</v>
+        <v>0.0301881462397553</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.6575852366608856</v>
+        <v>0.2500713783235682</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.791523916020253</v>
+        <v>5.39784490615466</v>
       </c>
       <c r="C10">
-        <v>0.4744601906764387</v>
+        <v>1.374258584240465</v>
       </c>
       <c r="D10">
-        <v>0.04976131823518415</v>
+        <v>0.1535577458592456</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2296971834258414</v>
+        <v>0.1844183928869541</v>
       </c>
       <c r="G10">
-        <v>0.0994881274531707</v>
+        <v>0.07823751143632052</v>
       </c>
       <c r="H10">
-        <v>0.2735235100196789</v>
+        <v>0.07057042300028371</v>
       </c>
       <c r="I10">
-        <v>0.1599374023737221</v>
+        <v>0.02140631403465854</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6353096062943706</v>
+        <v>0.2664412502755056</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.91541280536012</v>
+        <v>5.776313753851696</v>
       </c>
       <c r="C11">
-        <v>0.5049016903568031</v>
+        <v>1.46653949859882</v>
       </c>
       <c r="D11">
-        <v>0.05322756170164666</v>
+        <v>0.1643960072829458</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2290458425457587</v>
+        <v>0.1960005632983624</v>
       </c>
       <c r="G11">
-        <v>0.09821386278927235</v>
+        <v>0.08456212732410506</v>
       </c>
       <c r="H11">
-        <v>0.270382633483905</v>
+        <v>0.06923559751754027</v>
       </c>
       <c r="I11">
-        <v>0.156280140333366</v>
+        <v>0.01823681697378277</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6261795788326197</v>
+        <v>0.277287575293812</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.962251998559509</v>
+        <v>5.919728728457301</v>
       </c>
       <c r="C12">
-        <v>0.5164117504726278</v>
+        <v>1.501503827198349</v>
       </c>
       <c r="D12">
-        <v>0.0545383833739379</v>
+        <v>0.1685026057647576</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.2288461437004941</v>
+        <v>0.200562234329027</v>
       </c>
       <c r="G12">
-        <v>0.09776635674497669</v>
+        <v>0.08711741934831707</v>
       </c>
       <c r="H12">
-        <v>0.2692276321599536</v>
+        <v>0.06882236001220576</v>
       </c>
       <c r="I12">
-        <v>0.1549321477180339</v>
+        <v>0.01716471879355463</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.6228673931974384</v>
+        <v>0.2819267190627244</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.952167721342619</v>
+        <v>5.888836898714089</v>
       </c>
       <c r="C13">
-        <v>0.5139336442889544</v>
+        <v>1.493972652200796</v>
       </c>
       <c r="D13">
-        <v>0.05425615457097877</v>
+        <v>0.1676180565752077</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.2288870603905053</v>
+        <v>0.1995717385408895</v>
       </c>
       <c r="G13">
-        <v>0.09786117199929834</v>
+        <v>0.08655972913913246</v>
       </c>
       <c r="H13">
-        <v>0.2694748518472565</v>
+        <v>0.06890715162644057</v>
       </c>
       <c r="I13">
-        <v>0.1552208161845838</v>
+        <v>0.01738975999299797</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.6235742616331379</v>
+        <v>0.2809032280936776</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.919267812801252</v>
+        <v>5.788110454332411</v>
       </c>
       <c r="C14">
-        <v>0.5058489851924151</v>
+        <v>1.469415603119955</v>
       </c>
       <c r="D14">
-        <v>0.05333543975606858</v>
+        <v>0.1647338069222286</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.2290284708450727</v>
+        <v>0.1963722456886003</v>
       </c>
       <c r="G14">
-        <v>0.09817634226764227</v>
+        <v>0.0847690565437702</v>
       </c>
       <c r="H14">
-        <v>0.2702869212785259</v>
+        <v>0.06919971429747562</v>
       </c>
       <c r="I14">
-        <v>0.1561684988049166</v>
+        <v>0.01814599107799264</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.6259041690850751</v>
+        <v>0.2776583251291385</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.899105824388585</v>
+        <v>5.726426221798533</v>
       </c>
       <c r="C15">
-        <v>0.5008945961739073</v>
+        <v>1.454376453994485</v>
       </c>
       <c r="D15">
-        <v>0.05277124229816366</v>
+        <v>0.1629674565496373</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.2291212104047773</v>
+        <v>0.1944358000655413</v>
       </c>
       <c r="G15">
-        <v>0.09837396483197125</v>
+        <v>0.08369352522874607</v>
       </c>
       <c r="H15">
-        <v>0.2707888172766602</v>
+        <v>0.06939112222751476</v>
       </c>
       <c r="I15">
-        <v>0.1567537976193609</v>
+        <v>0.0186261789560449</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.6273502347441138</v>
+        <v>0.2757413155828488</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.783417192997092</v>
+        <v>5.373122869402039</v>
       </c>
       <c r="C16">
-        <v>0.4724683696379657</v>
+        <v>1.368230171065875</v>
       </c>
       <c r="D16">
-        <v>0.04953454824359937</v>
+        <v>0.1528497276714518</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.229746306572288</v>
+        <v>0.1836852513318163</v>
       </c>
       <c r="G16">
-        <v>0.09957628782971284</v>
+        <v>0.07784582925867056</v>
       </c>
       <c r="H16">
-        <v>0.2737335798226184</v>
+        <v>0.0706702118165552</v>
       </c>
       <c r="I16">
-        <v>0.1601815701853946</v>
+        <v>0.02163085097679218</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.6359265395235667</v>
+        <v>0.2658044445977481</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.712316205624575</v>
+        <v>5.156520803429146</v>
       </c>
       <c r="C17">
-        <v>0.4549996177792082</v>
+        <v>1.315409767538142</v>
       </c>
       <c r="D17">
-        <v>0.04754588365759105</v>
+        <v>0.1466461812860871</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.2302131417114879</v>
+        <v>0.1773873097152361</v>
       </c>
       <c r="G17">
-        <v>0.10037591749564</v>
+        <v>0.07452866210123688</v>
       </c>
       <c r="H17">
-        <v>0.2756012356755235</v>
+        <v>0.07161231128549872</v>
       </c>
       <c r="I17">
-        <v>0.162349961727621</v>
+        <v>0.02369206400164803</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6414454204320208</v>
+        <v>0.2606090162676651</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.671374179944735</v>
+        <v>5.031977732890425</v>
       </c>
       <c r="C18">
-        <v>0.4449412460112399</v>
+        <v>1.285036897179282</v>
       </c>
       <c r="D18">
-        <v>0.04640096103616997</v>
+        <v>0.1430790385338128</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.2305122071320156</v>
+        <v>0.1738694718790512</v>
       </c>
       <c r="G18">
-        <v>0.1008585385842125</v>
+        <v>0.07271554380112377</v>
       </c>
       <c r="H18">
-        <v>0.2766979013562647</v>
+        <v>0.07221002992537962</v>
       </c>
       <c r="I18">
-        <v>0.1636211920646389</v>
+        <v>0.0249547139379187</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.6447141144413138</v>
+        <v>0.2579380047898638</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.657504008393857</v>
+        <v>4.98981565754849</v>
       </c>
       <c r="C19">
-        <v>0.441533824964722</v>
+        <v>1.27475435173119</v>
       </c>
       <c r="D19">
-        <v>0.04601312447077532</v>
+        <v>0.1418714085448158</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.2306187056451279</v>
+        <v>0.1726959221666533</v>
       </c>
       <c r="G19">
-        <v>0.101025833688162</v>
+        <v>0.07211752512563407</v>
       </c>
       <c r="H19">
-        <v>0.2770730647387083</v>
+        <v>0.07242181324530605</v>
       </c>
       <c r="I19">
-        <v>0.1640557295574077</v>
+        <v>0.02539518812495611</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.6458370206766233</v>
+        <v>0.2570868670788116</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.719889876057721</v>
+        <v>5.17957402858292</v>
       </c>
       <c r="C20">
-        <v>0.4568603212208018</v>
+        <v>1.321031712593935</v>
       </c>
       <c r="D20">
-        <v>0.04775769440226441</v>
+        <v>0.1473064529645853</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.2301602822621049</v>
+        <v>0.1780468106627495</v>
       </c>
       <c r="G20">
-        <v>0.1002884442954439</v>
+        <v>0.07487186663028922</v>
       </c>
       <c r="H20">
-        <v>0.27540009746739</v>
+        <v>0.07150619869858588</v>
       </c>
       <c r="I20">
-        <v>0.1621166443653008</v>
+        <v>0.0234645987781601</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6408481517358382</v>
+        <v>0.2611289397074614</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.928933370906407</v>
+        <v>5.817693353314496</v>
       </c>
       <c r="C21">
-        <v>0.5082241268207781</v>
+        <v>1.476628017428766</v>
       </c>
       <c r="D21">
-        <v>0.05360592474002601</v>
+        <v>0.165580909426879</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.2289856589973098</v>
+        <v>0.1973071238009467</v>
       </c>
       <c r="G21">
-        <v>0.09808281580544786</v>
+        <v>0.08529055374752659</v>
       </c>
       <c r="H21">
-        <v>0.2700474630084528</v>
+        <v>0.06911122628194732</v>
       </c>
       <c r="I21">
-        <v>0.1558891374652012</v>
+        <v>0.01792031259218785</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.6252158722030572</v>
+        <v>0.2785966409908411</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.065117631210001</v>
+        <v>6.235323456382616</v>
       </c>
       <c r="C22">
-        <v>0.5416910795636909</v>
+        <v>1.578436645699355</v>
       </c>
       <c r="D22">
-        <v>0.05741772671812839</v>
+        <v>0.1775386452042937</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.228491747461419</v>
+        <v>0.2109266897233724</v>
       </c>
       <c r="G22">
-        <v>0.09684564406059337</v>
+        <v>0.09304125537143193</v>
       </c>
       <c r="H22">
-        <v>0.2667496440779402</v>
+        <v>0.06808677635621763</v>
       </c>
       <c r="I22">
-        <v>0.152034470861909</v>
+        <v>0.01504837264942793</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.615845771165084</v>
+        <v>0.2931348525646058</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.992474671905768</v>
+        <v>6.012361962925468</v>
       </c>
       <c r="C23">
-        <v>0.5238387842398993</v>
+        <v>1.524086374580349</v>
       </c>
       <c r="D23">
-        <v>0.05538427271886803</v>
+        <v>0.1711549792790663</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.228730225804668</v>
+        <v>0.2035582081882836</v>
       </c>
       <c r="G23">
-        <v>0.09748714161343486</v>
+        <v>0.08881354120026685</v>
       </c>
       <c r="H23">
-        <v>0.2684913823744495</v>
+        <v>0.06858187779801028</v>
       </c>
       <c r="I23">
-        <v>0.1540720052553501</v>
+        <v>0.01650915014611343</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.620769023966119</v>
+        <v>0.2850749609380898</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.716466022245697</v>
+        <v>5.169151716624981</v>
       </c>
       <c r="C24">
-        <v>0.4560191449538138</v>
+        <v>1.318490049534262</v>
       </c>
       <c r="D24">
-        <v>0.04766193978210254</v>
+        <v>0.1470079461971778</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.2301840844868863</v>
+        <v>0.1777483307649987</v>
       </c>
       <c r="G24">
-        <v>0.1003279196126954</v>
+        <v>0.0747164122354107</v>
       </c>
       <c r="H24">
-        <v>0.2754909606472395</v>
+        <v>0.07155399795367856</v>
       </c>
       <c r="I24">
-        <v>0.1622220505550578</v>
+        <v>0.02356719470893331</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6411178785243976</v>
+        <v>0.2608929015559482</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.416976320814911</v>
+        <v>4.261060032418925</v>
       </c>
       <c r="C25">
-        <v>0.3824548638710326</v>
+        <v>1.097005432572985</v>
       </c>
       <c r="D25">
-        <v>0.03929060586338551</v>
+        <v>0.1209957983107586</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.2329194067134601</v>
+        <v>0.1538541634322392</v>
       </c>
       <c r="G25">
-        <v>0.1042584865482041</v>
+        <v>0.06308587898019624</v>
       </c>
       <c r="H25">
-        <v>0.2838986827935237</v>
+        <v>0.07687272236989529</v>
       </c>
       <c r="I25">
-        <v>0.1719310481100571</v>
+        <v>0.03409432031943727</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6666720873480827</v>
+        <v>0.2467853366205404</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.592477463002353</v>
+        <v>1.166863428572015</v>
       </c>
       <c r="C2">
-        <v>0.9339165004772667</v>
+        <v>0.1917920775323125</v>
       </c>
       <c r="D2">
-        <v>0.1018409951239221</v>
+        <v>0.08922778764669914</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1391513197244301</v>
+        <v>0.3824229176814598</v>
       </c>
       <c r="G2">
-        <v>0.05711501471497371</v>
+        <v>0.2839467768513373</v>
       </c>
       <c r="H2">
-        <v>0.08239138507851962</v>
+        <v>0.001596214793343376</v>
       </c>
       <c r="I2">
-        <v>0.04403016309031926</v>
+        <v>0.001896060095192276</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2758393769774301</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3331403526251968</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9801571032766105</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.4264675409210952</v>
       </c>
       <c r="O2">
-        <v>0.2452258428998562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.127290974445103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.138868221671487</v>
+        <v>1.016862669757899</v>
       </c>
       <c r="C3">
-        <v>0.8232714866656465</v>
+        <v>0.1866640456158635</v>
       </c>
       <c r="D3">
-        <v>0.08884412839137212</v>
+        <v>0.07950189666162544</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1307560384223194</v>
+        <v>0.3686341019677144</v>
       </c>
       <c r="G3">
-        <v>0.05446179271190132</v>
+        <v>0.2785582628535579</v>
       </c>
       <c r="H3">
-        <v>0.08703141082749255</v>
+        <v>0.002610777791480445</v>
       </c>
       <c r="I3">
-        <v>0.05197707444777588</v>
+        <v>0.002807702484398433</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2773883040499001</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3352308817087746</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8627939519358563</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.3762381617945891</v>
       </c>
       <c r="O3">
-        <v>0.2489919452398155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.118848743205689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.859948865057618</v>
+        <v>0.9244367287261355</v>
       </c>
       <c r="C4">
-        <v>0.755245197146877</v>
+        <v>0.1834817244006217</v>
       </c>
       <c r="D4">
-        <v>0.08085226148205749</v>
+        <v>0.07353196696365671</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1263023286149831</v>
+        <v>0.3605493934436907</v>
       </c>
       <c r="G4">
-        <v>0.05345020289398406</v>
+        <v>0.2755565017434876</v>
       </c>
       <c r="H4">
-        <v>0.09029325090018503</v>
+        <v>0.003387488226006985</v>
       </c>
       <c r="I4">
-        <v>0.05740827056979825</v>
+        <v>0.003536459173778983</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2785605267691267</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3367132142655471</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7906743417116644</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.3453647968856046</v>
       </c>
       <c r="O4">
-        <v>0.2534703097850297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.114771844122842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.746167190079689</v>
+        <v>0.8863174627914248</v>
       </c>
       <c r="C5">
-        <v>0.7274975762815927</v>
+        <v>0.1822615009861757</v>
       </c>
       <c r="D5">
-        <v>0.07759205026604832</v>
+        <v>0.07116529406862782</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1246533447879905</v>
+        <v>0.3569915650139421</v>
       </c>
       <c r="G5">
-        <v>0.05318332992391461</v>
+        <v>0.2740725848012673</v>
       </c>
       <c r="H5">
-        <v>0.09172185577675407</v>
+        <v>0.003743404995079025</v>
       </c>
       <c r="I5">
-        <v>0.0597535931757549</v>
+        <v>0.003949958757059502</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2789154365472655</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3370334708880378</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7616278778482695</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.3327615701467721</v>
       </c>
       <c r="O5">
-        <v>0.2558096087831316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.112298801773719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.72726607651208</v>
+        <v>0.8795288856375123</v>
       </c>
       <c r="C6">
-        <v>0.7228884099385482</v>
+        <v>0.1821654509919846</v>
       </c>
       <c r="D6">
-        <v>0.07705047151736721</v>
+        <v>0.07085353912651726</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1243892599076091</v>
+        <v>0.355971925407637</v>
       </c>
       <c r="G6">
-        <v>0.05314751263873774</v>
+        <v>0.2734218246927469</v>
       </c>
       <c r="H6">
-        <v>0.09196495040307084</v>
+        <v>0.003807455352367761</v>
       </c>
       <c r="I6">
-        <v>0.06015081839450698</v>
+        <v>0.00412086217440244</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2787612990656285</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3366837918640577</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.757246943232289</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.3306539616098263</v>
       </c>
       <c r="O6">
-        <v>0.2562282480775551</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.110584411570201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.858414874278594</v>
+        <v>0.922679435324028</v>
       </c>
       <c r="C7">
-        <v>0.7548710944660684</v>
+        <v>0.1837603297504806</v>
       </c>
       <c r="D7">
-        <v>0.08080830779095294</v>
+        <v>0.07372275824970131</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1262794313316853</v>
+        <v>0.3593156160725854</v>
       </c>
       <c r="G7">
-        <v>0.05344602802098919</v>
+        <v>0.2744209720534059</v>
       </c>
       <c r="H7">
-        <v>0.09031212091656826</v>
+        <v>0.003399028890002487</v>
       </c>
       <c r="I7">
-        <v>0.05743937431226165</v>
+        <v>0.003798780030360049</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2779759647249591</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3356113314015126</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7914983541454745</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.3451566022392853</v>
       </c>
       <c r="O7">
-        <v>0.2534998150793868</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.111138924103614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.436144356446675</v>
+        <v>1.113545697489513</v>
       </c>
       <c r="C8">
-        <v>0.8957823215178848</v>
+        <v>0.1904369915893795</v>
       </c>
       <c r="D8">
-        <v>0.09736179010836565</v>
+        <v>0.0861718485221914</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1361047774321165</v>
+        <v>0.3760232132256434</v>
       </c>
       <c r="G8">
-        <v>0.05606592969381552</v>
+        <v>0.2805546034302466</v>
       </c>
       <c r="H8">
-        <v>0.08390285676565057</v>
+        <v>0.001919607256148259</v>
       </c>
       <c r="I8">
-        <v>0.04665164044072068</v>
+        <v>0.002483161058756345</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2755551652948824</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3323688372298506</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9413274621084895</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.409104670139385</v>
       </c>
       <c r="O8">
-        <v>0.2460562263951616</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.119414949271516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.566870275420399</v>
+        <v>1.487659814134048</v>
       </c>
       <c r="C9">
-        <v>1.171598621273517</v>
+        <v>0.2027601600918274</v>
       </c>
       <c r="D9">
-        <v>0.1297563725946702</v>
+        <v>0.1102242513073151</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1614215520736195</v>
+        <v>0.4141171087435467</v>
       </c>
       <c r="G9">
-        <v>0.06656984781420761</v>
+        <v>0.2971575239610118</v>
       </c>
       <c r="H9">
-        <v>0.07481835090564459</v>
+        <v>0.0003017636055073769</v>
       </c>
       <c r="I9">
-        <v>0.0301881462397553</v>
+        <v>0.0009312379338028975</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2736680941738996</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3296088356605722</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.232700457865604</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.5344316448551325</v>
       </c>
       <c r="O9">
-        <v>0.2500713783235682</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.151278372669438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.39784490615466</v>
+        <v>1.754317933926785</v>
       </c>
       <c r="C10">
-        <v>1.374258584240465</v>
+        <v>0.2138085892170096</v>
       </c>
       <c r="D10">
-        <v>0.1535577458592456</v>
+        <v>0.1292261039817504</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1844183928869541</v>
+        <v>0.4381163083318427</v>
       </c>
       <c r="G10">
-        <v>0.07823751143632052</v>
+        <v>0.3053652694808662</v>
       </c>
       <c r="H10">
-        <v>0.07057042300028371</v>
+        <v>0.000187822580960173</v>
       </c>
       <c r="I10">
-        <v>0.02140631403465854</v>
+        <v>0.0008933021968031696</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2704973805780853</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3230824376008847</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.453755140390456</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5965921298536045</v>
       </c>
       <c r="O10">
-        <v>0.2664412502755056</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.162458400482478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.776313753851696</v>
+        <v>1.817735376725494</v>
       </c>
       <c r="C11">
-        <v>1.46653949859882</v>
+        <v>0.2423829811090812</v>
       </c>
       <c r="D11">
-        <v>0.1643960072829458</v>
+        <v>0.1487531073520216</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1960005632983624</v>
+        <v>0.3997412857229179</v>
       </c>
       <c r="G11">
-        <v>0.08456212732410506</v>
+        <v>0.2640676331276595</v>
       </c>
       <c r="H11">
-        <v>0.06923559751754027</v>
+        <v>0.01876265853395864</v>
       </c>
       <c r="I11">
-        <v>0.01823681697378277</v>
+        <v>0.001453796209309743</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2457968275234066</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2780765349179113</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.61206138938951</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.3924376180459319</v>
       </c>
       <c r="O11">
-        <v>0.277287575293812</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.02335720747098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.919728728457301</v>
+        <v>1.816123827405789</v>
       </c>
       <c r="C12">
-        <v>1.501503827198349</v>
+        <v>0.2716930770355361</v>
       </c>
       <c r="D12">
-        <v>0.1685026057647576</v>
+        <v>0.1615350992880451</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.200562234329027</v>
+        <v>0.3649879755984529</v>
       </c>
       <c r="G12">
-        <v>0.08711741934831707</v>
+        <v>0.2311559627876179</v>
       </c>
       <c r="H12">
-        <v>0.06882236001220576</v>
+        <v>0.05746395229049028</v>
       </c>
       <c r="I12">
-        <v>0.01716471879355463</v>
+        <v>0.00145873156254428</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2273114193521337</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2469101359377532</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.69979200993987</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2446669751868455</v>
       </c>
       <c r="O12">
-        <v>0.2819267190627244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.914938323205206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.888836898714089</v>
+        <v>1.762386485877414</v>
       </c>
       <c r="C13">
-        <v>1.493972652200796</v>
+        <v>0.303204395527203</v>
       </c>
       <c r="D13">
-        <v>0.1676180565752077</v>
+        <v>0.1700841526355248</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.1995717385408895</v>
+        <v>0.3290227861271333</v>
       </c>
       <c r="G13">
-        <v>0.08655972913913246</v>
+        <v>0.2009070074022858</v>
       </c>
       <c r="H13">
-        <v>0.06890715162644057</v>
+        <v>0.1132692514553924</v>
       </c>
       <c r="I13">
-        <v>0.01738975999299797</v>
+        <v>0.001392793800080838</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2115121308625234</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2226860282890506</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.739338352276121</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1319521865861972</v>
       </c>
       <c r="O13">
-        <v>0.2809032280936776</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.8177068852094749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.788110454332411</v>
+        <v>1.700993927372167</v>
       </c>
       <c r="C14">
-        <v>1.469415603119955</v>
+        <v>0.3272761673951834</v>
       </c>
       <c r="D14">
-        <v>0.1647338069222286</v>
+        <v>0.1742407059211217</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.1963722456886003</v>
+        <v>0.3033122244921529</v>
       </c>
       <c r="G14">
-        <v>0.0847690565437702</v>
+        <v>0.1810873440551575</v>
       </c>
       <c r="H14">
-        <v>0.06919971429747562</v>
+        <v>0.1626736244093507</v>
       </c>
       <c r="I14">
-        <v>0.01814599107799264</v>
+        <v>0.001410313386425166</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2016993123388247</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2092257714769694</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.745548629039121</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07444167435316729</v>
       </c>
       <c r="O14">
-        <v>0.2776583251291385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.7550891695666024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.726426221798533</v>
+        <v>1.674628018223814</v>
       </c>
       <c r="C15">
-        <v>1.454376453994485</v>
+        <v>0.332937022475619</v>
       </c>
       <c r="D15">
-        <v>0.1629674565496373</v>
+        <v>0.174350222923465</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.1944358000655413</v>
+        <v>0.2963427950285933</v>
       </c>
       <c r="G15">
-        <v>0.08369352522874607</v>
+        <v>0.1762955400003676</v>
       </c>
       <c r="H15">
-        <v>0.06939112222751476</v>
+        <v>0.1752093514617599</v>
       </c>
       <c r="I15">
-        <v>0.0186261789560449</v>
+        <v>0.001522492300126466</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1996225240781371</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2067302992630378</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.736852920487792</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06313865511615546</v>
       </c>
       <c r="O15">
-        <v>0.2757413155828488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.7405505831117409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.373122869402039</v>
+        <v>1.571203145810102</v>
       </c>
       <c r="C16">
-        <v>1.368230171065875</v>
+        <v>0.3208082180086222</v>
       </c>
       <c r="D16">
-        <v>0.1528497276714518</v>
+        <v>0.1642207986150908</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.1836852513318163</v>
+        <v>0.2925939899692764</v>
       </c>
       <c r="G16">
-        <v>0.07784582925867056</v>
+        <v>0.1781730163542079</v>
       </c>
       <c r="H16">
-        <v>0.0706702118165552</v>
+        <v>0.162605132155818</v>
       </c>
       <c r="I16">
-        <v>0.02163085097679218</v>
+        <v>0.001658814575747236</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2036467447112713</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2136323471360662</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.632416363230448</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06265997652003463</v>
       </c>
       <c r="O16">
-        <v>0.2658044445977481</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.7527810113131608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.156520803429146</v>
+        <v>1.524424783467765</v>
       </c>
       <c r="C17">
-        <v>1.315409767538142</v>
+        <v>0.2982658423758267</v>
       </c>
       <c r="D17">
-        <v>0.1466461812860871</v>
+        <v>0.1542740583690829</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.1773873097152361</v>
+        <v>0.3033044042227004</v>
       </c>
       <c r="G17">
-        <v>0.07452866210123688</v>
+        <v>0.1899815536031397</v>
       </c>
       <c r="H17">
-        <v>0.07161231128549872</v>
+        <v>0.1248959089703163</v>
       </c>
       <c r="I17">
-        <v>0.02369206400164803</v>
+        <v>0.001791555515683996</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.211916218725591</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2257785819972575</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.549354922181521</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.0889099777110971</v>
       </c>
       <c r="O17">
-        <v>0.2606090162676651</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.7950237134459996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.031977732890425</v>
+        <v>1.521794186888428</v>
       </c>
       <c r="C18">
-        <v>1.285036897179282</v>
+        <v>0.2670508379174805</v>
       </c>
       <c r="D18">
-        <v>0.1430790385338128</v>
+        <v>0.1433831352254487</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.1738694718790512</v>
+        <v>0.3290248762795329</v>
       </c>
       <c r="G18">
-        <v>0.07271554380112377</v>
+        <v>0.2134183027726095</v>
       </c>
       <c r="H18">
-        <v>0.07221002992537962</v>
+        <v>0.07203727417348915</v>
       </c>
       <c r="I18">
-        <v>0.0249547139379187</v>
+        <v>0.001596414628004084</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2255892337623493</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2462832843714153</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.474974620523085</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1598944822612012</v>
       </c>
       <c r="O18">
-        <v>0.2579380047898638</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.8732834391022806</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.98981565754849</v>
+        <v>1.552404151462099</v>
       </c>
       <c r="C19">
-        <v>1.27475435173119</v>
+        <v>0.2382609912967411</v>
       </c>
       <c r="D19">
-        <v>0.1418714085448158</v>
+        <v>0.133371371754393</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.1726959221666533</v>
+        <v>0.364166446865049</v>
       </c>
       <c r="G19">
-        <v>0.07211752512563407</v>
+        <v>0.2447107877785015</v>
       </c>
       <c r="H19">
-        <v>0.07242181324530605</v>
+        <v>0.02663108342368758</v>
       </c>
       <c r="I19">
-        <v>0.02539518812495611</v>
+        <v>0.001681942026955596</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2425364709403439</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2737295021411938</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.416742271541494</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2902015408244267</v>
       </c>
       <c r="O19">
-        <v>0.2570868670788116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.975098975440261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.17957402858292</v>
+        <v>1.680124699492183</v>
       </c>
       <c r="C20">
-        <v>1.321031712593935</v>
+        <v>0.2121053783257594</v>
       </c>
       <c r="D20">
-        <v>0.1473064529645853</v>
+        <v>0.1250006862574509</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.1780468106627495</v>
+        <v>0.4277800474776683</v>
       </c>
       <c r="G20">
-        <v>0.07487186663028922</v>
+        <v>0.2994682936455675</v>
       </c>
       <c r="H20">
-        <v>0.07150619869858588</v>
+        <v>0.0001444427138332927</v>
       </c>
       <c r="I20">
-        <v>0.0234645987781601</v>
+        <v>0.001622022653839927</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2693654125452412</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3212060222413591</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.39987062515408</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.5789031866690664</v>
       </c>
       <c r="O20">
-        <v>0.2611289397074614</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.147478069946857</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.817693353314496</v>
+        <v>1.895017159985116</v>
       </c>
       <c r="C21">
-        <v>1.476628017428766</v>
+        <v>0.2174395935899796</v>
       </c>
       <c r="D21">
-        <v>0.165580909426879</v>
+        <v>0.1376960808322565</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.1973071238009467</v>
+        <v>0.4565057201840332</v>
       </c>
       <c r="G21">
-        <v>0.08529055374752659</v>
+        <v>0.3152744742085929</v>
       </c>
       <c r="H21">
-        <v>0.06911122628194732</v>
+        <v>9.230764314560602E-05</v>
       </c>
       <c r="I21">
-        <v>0.01792031259218785</v>
+        <v>0.001759964135336745</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2719210092554576</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3251270402973958</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.559330214062612</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.6730711040964934</v>
       </c>
       <c r="O21">
-        <v>0.2785966409908411</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.186653133412889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.235323456382616</v>
+        <v>2.033785016339152</v>
       </c>
       <c r="C22">
-        <v>1.578436645699355</v>
+        <v>0.2214641413101006</v>
       </c>
       <c r="D22">
-        <v>0.1775386452042937</v>
+        <v>0.1463011618395313</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.2109266897233724</v>
+        <v>0.4744181373407699</v>
       </c>
       <c r="G22">
-        <v>0.09304125537143193</v>
+        <v>0.3247491452693083</v>
       </c>
       <c r="H22">
-        <v>0.06808677635621763</v>
+        <v>0.000337325402951727</v>
       </c>
       <c r="I22">
-        <v>0.01504837264942793</v>
+        <v>0.00175221619266086</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2731944231672188</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3267259385706112</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.665185835427252</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.7194645079247834</v>
       </c>
       <c r="O22">
-        <v>0.2931348525646058</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.209604902304264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.012361962925468</v>
+        <v>1.961257245608749</v>
       </c>
       <c r="C23">
-        <v>1.524086374580349</v>
+        <v>0.218896138535321</v>
       </c>
       <c r="D23">
-        <v>0.1711549792790663</v>
+        <v>0.1414307197313747</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.2035582081882836</v>
+        <v>0.4661860592703633</v>
       </c>
       <c r="G23">
-        <v>0.08881354120026685</v>
+        <v>0.3209365034103016</v>
       </c>
       <c r="H23">
-        <v>0.06858187779801028</v>
+        <v>0.0001894111282723099</v>
       </c>
       <c r="I23">
-        <v>0.01650915014611343</v>
+        <v>0.001437444545674182</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2731559874614859</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3270994764800577</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.607176324896813</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.6947365024465739</v>
       </c>
       <c r="O23">
-        <v>0.2850749609380898</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.201335959671454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.169151716624981</v>
+        <v>1.683938131308082</v>
       </c>
       <c r="C24">
-        <v>1.318490049534262</v>
+        <v>0.2098543134179494</v>
       </c>
       <c r="D24">
-        <v>0.1470079461971778</v>
+        <v>0.1234669411138185</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.1777483307649987</v>
+        <v>0.4338955837075105</v>
       </c>
       <c r="G24">
-        <v>0.0747164122354107</v>
+        <v>0.3053395326383495</v>
       </c>
       <c r="H24">
-        <v>0.07155399795367856</v>
+        <v>1.733721852836823E-05</v>
       </c>
       <c r="I24">
-        <v>0.02356719470893331</v>
+        <v>0.001129501085173068</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2724940477693139</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.327059547636928</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.390117923768088</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.6011711904953216</v>
       </c>
       <c r="O24">
-        <v>0.2608929015559482</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.166472819082145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.261060032418925</v>
+        <v>1.384386907587242</v>
       </c>
       <c r="C25">
-        <v>1.097005432572985</v>
+        <v>0.2000357825905255</v>
       </c>
       <c r="D25">
-        <v>0.1209957983107586</v>
+        <v>0.1041220900955508</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.1538541634322392</v>
+        <v>0.4013144032753999</v>
       </c>
       <c r="G25">
-        <v>0.06308587898019624</v>
+        <v>0.2903758495623237</v>
       </c>
       <c r="H25">
-        <v>0.07687272236989529</v>
+        <v>0.0005953339000572822</v>
       </c>
       <c r="I25">
-        <v>0.03409432031943727</v>
+        <v>0.001623785286819057</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.272935129554746</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3282176400029613</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.156121745224738</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.50046013199686</v>
       </c>
       <c r="O25">
-        <v>0.2467853366205404</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.135204864511692</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.166863428572015</v>
+        <v>1.151972845759587</v>
       </c>
       <c r="C2">
-        <v>0.1917920775323125</v>
+        <v>0.1770176917508834</v>
       </c>
       <c r="D2">
-        <v>0.08922778764669914</v>
+        <v>0.09206361378361549</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3824229176814598</v>
+        <v>0.3591839043993517</v>
       </c>
       <c r="G2">
-        <v>0.2839467768513373</v>
+        <v>0.2447092815692145</v>
       </c>
       <c r="H2">
-        <v>0.001596214793343376</v>
+        <v>0.001187679000579034</v>
       </c>
       <c r="I2">
-        <v>0.001896060095192276</v>
+        <v>0.001420052002766958</v>
       </c>
       <c r="J2">
-        <v>0.2758393769774301</v>
+        <v>0.2934426521552567</v>
       </c>
       <c r="K2">
-        <v>0.3331403526251968</v>
+        <v>0.3036557009827874</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1521481509538773</v>
       </c>
       <c r="M2">
-        <v>0.9801571032766105</v>
+        <v>0.08203592842578367</v>
       </c>
       <c r="N2">
-        <v>0.4264675409210952</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.000276200378238</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.4302501666134475</v>
       </c>
       <c r="Q2">
-        <v>1.127290974445103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.050608778976923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.016862669757899</v>
+        <v>1.006350009983265</v>
       </c>
       <c r="C3">
-        <v>0.1866640456158635</v>
+        <v>0.1697108919427208</v>
       </c>
       <c r="D3">
-        <v>0.07950189666162544</v>
+        <v>0.08144861603075526</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3686341019677144</v>
+        <v>0.3482819802517341</v>
       </c>
       <c r="G3">
-        <v>0.2785582628535579</v>
+        <v>0.242500496937943</v>
       </c>
       <c r="H3">
-        <v>0.002610777791480445</v>
+        <v>0.00201659165216872</v>
       </c>
       <c r="I3">
-        <v>0.002807702484398433</v>
+        <v>0.002057684781458846</v>
       </c>
       <c r="J3">
-        <v>0.2773883040499001</v>
+        <v>0.2940963310144582</v>
       </c>
       <c r="K3">
-        <v>0.3352308817087746</v>
+        <v>0.3076465685794325</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1570413349808426</v>
       </c>
       <c r="M3">
-        <v>0.8627939519358563</v>
+        <v>0.08160418761690025</v>
       </c>
       <c r="N3">
-        <v>0.3762381617945891</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8787362970192873</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3803890470667426</v>
       </c>
       <c r="Q3">
-        <v>1.118848743205689</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.049695701069083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9244367287261355</v>
+        <v>0.9165132044705615</v>
       </c>
       <c r="C4">
-        <v>0.1834817244006217</v>
+        <v>0.1652530925829012</v>
       </c>
       <c r="D4">
-        <v>0.07353196696365671</v>
+        <v>0.07494780618490182</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3605493934436907</v>
+        <v>0.3418881423831976</v>
       </c>
       <c r="G4">
-        <v>0.2755565017434876</v>
+        <v>0.2414564442514973</v>
       </c>
       <c r="H4">
-        <v>0.003387488226006985</v>
+        <v>0.002659393607541638</v>
       </c>
       <c r="I4">
-        <v>0.003536459173778983</v>
+        <v>0.00259422582288904</v>
       </c>
       <c r="J4">
-        <v>0.2785605267691267</v>
+        <v>0.2945813660524124</v>
       </c>
       <c r="K4">
-        <v>0.3367132142655471</v>
+        <v>0.310234464859235</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1601617038043806</v>
       </c>
       <c r="M4">
-        <v>0.7906743417116644</v>
+        <v>0.08183205630529233</v>
       </c>
       <c r="N4">
-        <v>0.3453647968856046</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8041115325901131</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3497377883989969</v>
       </c>
       <c r="Q4">
-        <v>1.114771844122842</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.050005105453437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8863174627914248</v>
+        <v>0.8794326066630163</v>
       </c>
       <c r="C5">
-        <v>0.1822615009861757</v>
+        <v>0.163559095018627</v>
       </c>
       <c r="D5">
-        <v>0.07116529406862782</v>
+        <v>0.072368956293964</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3569915650139421</v>
+        <v>0.3390150792781768</v>
       </c>
       <c r="G5">
-        <v>0.2740725848012673</v>
+        <v>0.2407948381286431</v>
       </c>
       <c r="H5">
-        <v>0.003743404995079025</v>
+        <v>0.002955647305768139</v>
       </c>
       <c r="I5">
-        <v>0.003949958757059502</v>
+        <v>0.002935812643489299</v>
       </c>
       <c r="J5">
-        <v>0.2789154365472655</v>
+        <v>0.2946244981963488</v>
       </c>
       <c r="K5">
-        <v>0.3370334708880378</v>
+        <v>0.3110167153251595</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1613021728057724</v>
       </c>
       <c r="M5">
-        <v>0.7616278778482695</v>
+        <v>0.08197797787070549</v>
       </c>
       <c r="N5">
-        <v>0.3327615701467721</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7740577699628375</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3372241598752339</v>
       </c>
       <c r="Q5">
-        <v>1.112298801773719</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.049321275442011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8795288856375123</v>
+        <v>0.8728244125043432</v>
       </c>
       <c r="C6">
-        <v>0.1821654509919846</v>
+        <v>0.163423159848314</v>
       </c>
       <c r="D6">
-        <v>0.07085353912651726</v>
+        <v>0.07202269212148593</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.355971925407637</v>
+        <v>0.3381274099839118</v>
       </c>
       <c r="G6">
-        <v>0.2734218246927469</v>
+        <v>0.2403098201974032</v>
       </c>
       <c r="H6">
-        <v>0.003807455352367761</v>
+        <v>0.00300915897645615</v>
       </c>
       <c r="I6">
-        <v>0.00412086217440244</v>
+        <v>0.003110849319011066</v>
       </c>
       <c r="J6">
-        <v>0.2787612990656285</v>
+        <v>0.2944190232546404</v>
       </c>
       <c r="K6">
-        <v>0.3366837918640577</v>
+        <v>0.3107756574544851</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1612985169161796</v>
       </c>
       <c r="M6">
-        <v>0.757246943232289</v>
+        <v>0.08192315031271047</v>
       </c>
       <c r="N6">
-        <v>0.3306539616098263</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7695081454474746</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.3351311079179169</v>
       </c>
       <c r="Q6">
-        <v>1.110584411570201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.047974435820464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.922679435324028</v>
+        <v>0.9149302359485318</v>
       </c>
       <c r="C7">
-        <v>0.1837603297504806</v>
+        <v>0.1655365607366193</v>
       </c>
       <c r="D7">
-        <v>0.07372275824970131</v>
+        <v>0.07527409792685091</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3593156160725854</v>
+        <v>0.3400572613135253</v>
       </c>
       <c r="G7">
-        <v>0.2744209720534059</v>
+        <v>0.2423308914750777</v>
       </c>
       <c r="H7">
-        <v>0.003399028890002487</v>
+        <v>0.002671509800312721</v>
       </c>
       <c r="I7">
-        <v>0.003798780030360049</v>
+        <v>0.002901104527999188</v>
       </c>
       <c r="J7">
-        <v>0.2779759647249591</v>
+        <v>0.2909850684669806</v>
       </c>
       <c r="K7">
-        <v>0.3356113314015126</v>
+        <v>0.308861060493129</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1594741313471246</v>
       </c>
       <c r="M7">
-        <v>0.7914983541454745</v>
+        <v>0.08149250535446484</v>
       </c>
       <c r="N7">
-        <v>0.3451566022392853</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8047172946494072</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3495154695870184</v>
       </c>
       <c r="Q7">
-        <v>1.111138924103614</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.044644506959344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.113545697489513</v>
+        <v>1.100671429310836</v>
       </c>
       <c r="C8">
-        <v>0.1904369915893795</v>
+        <v>0.1747399304178288</v>
       </c>
       <c r="D8">
-        <v>0.0861718485221914</v>
+        <v>0.08916333087773864</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3760232132256434</v>
+        <v>0.3516946435050414</v>
       </c>
       <c r="G8">
-        <v>0.2805546034302466</v>
+        <v>0.2489480476076338</v>
       </c>
       <c r="H8">
-        <v>0.001919607256148259</v>
+        <v>0.001455462157619158</v>
       </c>
       <c r="I8">
-        <v>0.002483161058756345</v>
+        <v>0.001978125991610291</v>
       </c>
       <c r="J8">
-        <v>0.2755551652948824</v>
+        <v>0.2831750420999484</v>
       </c>
       <c r="K8">
-        <v>0.3323688372298506</v>
+        <v>0.3024891735731217</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1526524542289245</v>
       </c>
       <c r="M8">
-        <v>0.9413274621084895</v>
+        <v>0.08104694534392998</v>
       </c>
       <c r="N8">
-        <v>0.409104670139385</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9593273799602855</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.4129685241895658</v>
       </c>
       <c r="Q8">
-        <v>1.119414949271516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.039255445040482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.487659814134048</v>
+        <v>1.463367897696742</v>
       </c>
       <c r="C9">
-        <v>0.2027601600918274</v>
+        <v>0.1926510042705161</v>
       </c>
       <c r="D9">
-        <v>0.1102242513073151</v>
+        <v>0.1156570465078772</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4141171087435467</v>
+        <v>0.3814629342739906</v>
       </c>
       <c r="G9">
-        <v>0.2971575239610118</v>
+        <v>0.2593449816816218</v>
       </c>
       <c r="H9">
-        <v>0.0003017636055073769</v>
+        <v>0.0001792823085324802</v>
       </c>
       <c r="I9">
-        <v>0.0009312379338028975</v>
+        <v>0.000911737297877302</v>
       </c>
       <c r="J9">
-        <v>0.2736680941738996</v>
+        <v>0.2801223040060279</v>
       </c>
       <c r="K9">
-        <v>0.3296088356605722</v>
+        <v>0.2942466567617537</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1416821622964513</v>
       </c>
       <c r="M9">
-        <v>1.232700457865604</v>
+        <v>0.0849700425806823</v>
       </c>
       <c r="N9">
-        <v>0.5344316448551325</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.261245139863831</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.5373299676933954</v>
       </c>
       <c r="Q9">
-        <v>1.151278372669438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.049062469287207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.754317933926785</v>
+        <v>1.722620492210012</v>
       </c>
       <c r="C10">
-        <v>0.2138085892170096</v>
+        <v>0.2081846920251351</v>
       </c>
       <c r="D10">
-        <v>0.1292261039817504</v>
+        <v>0.1373020768696023</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4381163083318427</v>
+        <v>0.3960531114071486</v>
       </c>
       <c r="G10">
-        <v>0.3053652694808662</v>
+        <v>0.2754766298145768</v>
       </c>
       <c r="H10">
-        <v>0.000187822580960173</v>
+        <v>0.000192225064112872</v>
       </c>
       <c r="I10">
-        <v>0.0008933021968031696</v>
+        <v>0.001106404204118228</v>
       </c>
       <c r="J10">
-        <v>0.2704973805780853</v>
+        <v>0.2605039928751012</v>
       </c>
       <c r="K10">
-        <v>0.3230824376008847</v>
+        <v>0.2825710014131211</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1319600777316836</v>
       </c>
       <c r="M10">
-        <v>1.453755140390456</v>
+        <v>0.08768400517914898</v>
       </c>
       <c r="N10">
-        <v>0.5965921298536045</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.488536452555678</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5986431570704411</v>
       </c>
       <c r="Q10">
-        <v>1.162458400482478</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.034988414514388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.817735376725494</v>
+        <v>1.790413530399775</v>
       </c>
       <c r="C11">
-        <v>0.2423829811090812</v>
+        <v>0.2414683327363605</v>
       </c>
       <c r="D11">
-        <v>0.1487531073520216</v>
+        <v>0.1589456121697026</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3997412857229179</v>
+        <v>0.3551090909766259</v>
       </c>
       <c r="G11">
-        <v>0.2640676331276595</v>
+        <v>0.262807438390233</v>
       </c>
       <c r="H11">
-        <v>0.01876265853395864</v>
+        <v>0.01875266106787876</v>
       </c>
       <c r="I11">
-        <v>0.001453796209309743</v>
+        <v>0.001799158208306118</v>
       </c>
       <c r="J11">
-        <v>0.2457968275234066</v>
+        <v>0.2160452430309689</v>
       </c>
       <c r="K11">
-        <v>0.2780765349179113</v>
+        <v>0.2420148650142586</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1160245761288898</v>
       </c>
       <c r="M11">
-        <v>1.61206138938951</v>
+        <v>0.07426677411196714</v>
       </c>
       <c r="N11">
-        <v>0.3924376180459319</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.642446977360436</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3939235933979148</v>
       </c>
       <c r="Q11">
-        <v>1.02335720747098</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.894047372679097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.816123827405789</v>
+        <v>1.793624988100845</v>
       </c>
       <c r="C12">
-        <v>0.2716930770355361</v>
+        <v>0.2722697969329175</v>
       </c>
       <c r="D12">
-        <v>0.1615350992880451</v>
+        <v>0.1724034083785</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3649879755984529</v>
+        <v>0.3225226217678951</v>
       </c>
       <c r="G12">
-        <v>0.2311559627876179</v>
+        <v>0.2430379048651758</v>
       </c>
       <c r="H12">
-        <v>0.05746395229049028</v>
+        <v>0.05743951492125632</v>
       </c>
       <c r="I12">
-        <v>0.00145873156254428</v>
+        <v>0.001804672570381527</v>
       </c>
       <c r="J12">
-        <v>0.2273114193521337</v>
+        <v>0.1968277485416934</v>
       </c>
       <c r="K12">
-        <v>0.2469101359377532</v>
+        <v>0.2165041937803931</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1072333421934468</v>
       </c>
       <c r="M12">
-        <v>1.69979200993987</v>
+        <v>0.06432731501173095</v>
       </c>
       <c r="N12">
-        <v>0.2446669751868455</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.725422053688305</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2459152418218196</v>
       </c>
       <c r="Q12">
-        <v>0.914938323205206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.7961233879679099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.762386485877414</v>
+        <v>1.74497509481796</v>
       </c>
       <c r="C13">
-        <v>0.303204395527203</v>
+        <v>0.3036590433002146</v>
       </c>
       <c r="D13">
-        <v>0.1700841526355248</v>
+        <v>0.179992554741176</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3290227861271333</v>
+        <v>0.293546817066705</v>
       </c>
       <c r="G13">
-        <v>0.2009070074022858</v>
+        <v>0.2112064862014975</v>
       </c>
       <c r="H13">
-        <v>0.1132692514553924</v>
+        <v>0.1132220395871286</v>
       </c>
       <c r="I13">
-        <v>0.001392793800080838</v>
+        <v>0.001717076151898311</v>
       </c>
       <c r="J13">
-        <v>0.2115121308625234</v>
+        <v>0.1914700735223533</v>
       </c>
       <c r="K13">
-        <v>0.2226860282890506</v>
+        <v>0.1991631988486358</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1019766174775016</v>
       </c>
       <c r="M13">
-        <v>1.739338352276121</v>
+        <v>0.05633382152923438</v>
       </c>
       <c r="N13">
-        <v>0.1319521865861972</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.760280891630515</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1331456399639492</v>
       </c>
       <c r="Q13">
-        <v>0.8177068852094749</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.7213479512393235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.700993927372167</v>
+        <v>1.687249199229427</v>
       </c>
       <c r="C14">
-        <v>0.3272761673951834</v>
+        <v>0.3268463414229217</v>
       </c>
       <c r="D14">
-        <v>0.1742407059211217</v>
+        <v>0.1826967772228585</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3033122244921529</v>
+        <v>0.2744810849424795</v>
       </c>
       <c r="G14">
-        <v>0.1810873440551575</v>
+        <v>0.1850633858566226</v>
       </c>
       <c r="H14">
-        <v>0.1626736244093507</v>
+        <v>0.1626035854512651</v>
       </c>
       <c r="I14">
-        <v>0.001410313386425166</v>
+        <v>0.001720952653566421</v>
       </c>
       <c r="J14">
-        <v>0.2016993123388247</v>
+        <v>0.1920450852892976</v>
       </c>
       <c r="K14">
-        <v>0.2092257714769694</v>
+        <v>0.1905211311470207</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09959121040544083</v>
       </c>
       <c r="M14">
-        <v>1.745548629039121</v>
+        <v>0.0517822460037749</v>
       </c>
       <c r="N14">
-        <v>0.07444167435316729</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.763217455815919</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.07565126287037316</v>
       </c>
       <c r="Q14">
-        <v>0.7550891695666024</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.6781265369541245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.674628018223814</v>
+        <v>1.66185060942459</v>
       </c>
       <c r="C15">
-        <v>0.332937022475619</v>
+        <v>0.3321854669312927</v>
       </c>
       <c r="D15">
-        <v>0.174350222923465</v>
+        <v>0.1821300215368638</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.2963427950285933</v>
+        <v>0.2699376610134863</v>
       </c>
       <c r="G15">
-        <v>0.1762955400003676</v>
+        <v>0.1767542693428084</v>
       </c>
       <c r="H15">
-        <v>0.1752093514617599</v>
+        <v>0.1751281838548095</v>
       </c>
       <c r="I15">
-        <v>0.001522492300126466</v>
+        <v>0.001844783420950513</v>
       </c>
       <c r="J15">
-        <v>0.1996225240781371</v>
+        <v>0.1939989187637643</v>
       </c>
       <c r="K15">
-        <v>0.2067302992630378</v>
+        <v>0.1893348664097649</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09934361202893838</v>
       </c>
       <c r="M15">
-        <v>1.736852920487792</v>
+        <v>0.05089686653108494</v>
       </c>
       <c r="N15">
-        <v>0.06313865511615546</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.753762790769798</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.06438001251361669</v>
       </c>
       <c r="Q15">
-        <v>0.7405505831117409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.6701387290333969</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.571203145810102</v>
+        <v>1.55920832621382</v>
       </c>
       <c r="C16">
-        <v>0.3208082180086222</v>
+        <v>0.3194666075996508</v>
       </c>
       <c r="D16">
-        <v>0.1642207986150908</v>
+        <v>0.1694004528910398</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.2925939899692764</v>
+        <v>0.2731213549253795</v>
       </c>
       <c r="G16">
-        <v>0.1781730163542079</v>
+        <v>0.1625057264976348</v>
       </c>
       <c r="H16">
-        <v>0.162605132155818</v>
+        <v>0.1624597819340181</v>
       </c>
       <c r="I16">
-        <v>0.001658814575747236</v>
+        <v>0.001927169250825145</v>
       </c>
       <c r="J16">
-        <v>0.2036467447112713</v>
+        <v>0.2133451060091787</v>
       </c>
       <c r="K16">
-        <v>0.2136323471360662</v>
+        <v>0.1978285034257325</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1026272263812631</v>
       </c>
       <c r="M16">
-        <v>1.632416363230448</v>
+        <v>0.05282974205763402</v>
       </c>
       <c r="N16">
-        <v>0.06265997652003463</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.64964924646452</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.06419448081417656</v>
       </c>
       <c r="Q16">
-        <v>0.7527810113131608</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.6986473629984999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.524424783467765</v>
+        <v>1.511320603452418</v>
       </c>
       <c r="C17">
-        <v>0.2982658423758267</v>
+        <v>0.2967012827873816</v>
       </c>
       <c r="D17">
-        <v>0.1542740583690829</v>
+        <v>0.1585965292817804</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3033044042227004</v>
+        <v>0.2851663674817928</v>
       </c>
       <c r="G17">
-        <v>0.1899815536031397</v>
+        <v>0.1665990708540548</v>
       </c>
       <c r="H17">
-        <v>0.1248959089703163</v>
+        <v>0.1247113595747891</v>
       </c>
       <c r="I17">
-        <v>0.001791555515683996</v>
+        <v>0.00202458972890085</v>
       </c>
       <c r="J17">
-        <v>0.211916218725591</v>
+        <v>0.2284840458914665</v>
       </c>
       <c r="K17">
-        <v>0.2257785819972575</v>
+        <v>0.2089732940704394</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1068605951799784</v>
       </c>
       <c r="M17">
-        <v>1.549354922181521</v>
+        <v>0.05641017722270369</v>
       </c>
       <c r="N17">
-        <v>0.0889099777110971</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.568214061233022</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.09068745658738919</v>
       </c>
       <c r="Q17">
-        <v>0.7950237134459996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.7427122688300329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.521794186888428</v>
+        <v>1.505520599837666</v>
       </c>
       <c r="C18">
-        <v>0.2670508379174805</v>
+        <v>0.2652068733485464</v>
       </c>
       <c r="D18">
-        <v>0.1433831352254487</v>
+        <v>0.1477930309814326</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3290248762795329</v>
+        <v>0.3086360246892497</v>
       </c>
       <c r="G18">
-        <v>0.2134183027726095</v>
+        <v>0.1840661415550784</v>
       </c>
       <c r="H18">
-        <v>0.07203727417348915</v>
+        <v>0.07184970128732715</v>
       </c>
       <c r="I18">
-        <v>0.001596414628004084</v>
+        <v>0.001769685342128291</v>
       </c>
       <c r="J18">
-        <v>0.2255892337623493</v>
+        <v>0.2440084921159809</v>
       </c>
       <c r="K18">
-        <v>0.2462832843714153</v>
+        <v>0.2261259180373933</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1133856657768355</v>
       </c>
       <c r="M18">
-        <v>1.474974620523085</v>
+        <v>0.06254740553169214</v>
       </c>
       <c r="N18">
-        <v>0.1598944822612012</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.497101731745204</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1619234926952799</v>
       </c>
       <c r="Q18">
-        <v>0.8732834391022806</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.8129138152228563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.552404151462099</v>
+        <v>1.53143781951502</v>
       </c>
       <c r="C19">
-        <v>0.2382609912967411</v>
+        <v>0.2354096579419434</v>
       </c>
       <c r="D19">
-        <v>0.133371371754393</v>
+        <v>0.1383825225472606</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.364166446865049</v>
+        <v>0.3390927674890065</v>
       </c>
       <c r="G19">
-        <v>0.2447107877785015</v>
+        <v>0.209629291087758</v>
       </c>
       <c r="H19">
-        <v>0.02663108342368758</v>
+        <v>0.02648302918303358</v>
       </c>
       <c r="I19">
-        <v>0.001681942026955596</v>
+        <v>0.001897120833523225</v>
       </c>
       <c r="J19">
-        <v>0.2425364709403439</v>
+        <v>0.2595802694361851</v>
       </c>
       <c r="K19">
-        <v>0.2737295021411938</v>
+        <v>0.2481911897702069</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1217055415877066</v>
       </c>
       <c r="M19">
-        <v>1.416742271541494</v>
+        <v>0.07081714800718864</v>
       </c>
       <c r="N19">
-        <v>0.2902015408244267</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.443189459733048</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.29246684519741</v>
       </c>
       <c r="Q19">
-        <v>0.975098975440261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.8995114804485809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.680124699492183</v>
+        <v>1.650056218002305</v>
       </c>
       <c r="C20">
-        <v>0.2121053783257594</v>
+        <v>0.2061557883539038</v>
       </c>
       <c r="D20">
-        <v>0.1250006862574509</v>
+        <v>0.1318637944123822</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4277800474776683</v>
+        <v>0.3908270367956135</v>
       </c>
       <c r="G20">
-        <v>0.2994682936455675</v>
+        <v>0.2606423691998998</v>
       </c>
       <c r="H20">
-        <v>0.0001444427138332927</v>
+        <v>0.0001221720588158171</v>
       </c>
       <c r="I20">
-        <v>0.001622022653839927</v>
+        <v>0.001942723625640852</v>
       </c>
       <c r="J20">
-        <v>0.2693654125452412</v>
+        <v>0.2733845437226918</v>
       </c>
       <c r="K20">
-        <v>0.3212060222413591</v>
+        <v>0.2837545234809475</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.133763247668286</v>
       </c>
       <c r="M20">
-        <v>1.39987062515408</v>
+        <v>0.08613798271076689</v>
       </c>
       <c r="N20">
-        <v>0.5789031866690664</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.433704402121805</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5812236143746645</v>
       </c>
       <c r="Q20">
-        <v>1.147478069946857</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.034547531741481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.895017159985116</v>
+        <v>1.860557148982224</v>
       </c>
       <c r="C21">
-        <v>0.2174395935899796</v>
+        <v>0.2122642276182134</v>
       </c>
       <c r="D21">
-        <v>0.1376960808322565</v>
+        <v>0.1495532067615954</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4565057201840332</v>
+        <v>0.3985194636701692</v>
       </c>
       <c r="G21">
-        <v>0.3152744742085929</v>
+        <v>0.3214269061374111</v>
       </c>
       <c r="H21">
-        <v>9.230764314560602E-05</v>
+        <v>0.0001315284382323867</v>
       </c>
       <c r="I21">
-        <v>0.001759964135336745</v>
+        <v>0.002170170704114405</v>
       </c>
       <c r="J21">
-        <v>0.2719210092554576</v>
+        <v>0.2204374344819122</v>
       </c>
       <c r="K21">
-        <v>0.3251270402973958</v>
+        <v>0.2755002626289809</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1269448027860705</v>
       </c>
       <c r="M21">
-        <v>1.559330214062612</v>
+        <v>0.08888437242866942</v>
       </c>
       <c r="N21">
-        <v>0.6730711040964934</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.59504545774783</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.6745162802186826</v>
       </c>
       <c r="Q21">
-        <v>1.186653133412889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.013855795272562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.033785016339152</v>
+        <v>1.996944416022927</v>
       </c>
       <c r="C22">
-        <v>0.2214641413101006</v>
+        <v>0.2168379257851001</v>
       </c>
       <c r="D22">
-        <v>0.1463011618395313</v>
+        <v>0.1617073889390639</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4744181373407699</v>
+        <v>0.4018428562748753</v>
       </c>
       <c r="G22">
-        <v>0.3247491452693083</v>
+        <v>0.3678425063061894</v>
       </c>
       <c r="H22">
-        <v>0.000337325402951727</v>
+        <v>0.0003776836934052952</v>
       </c>
       <c r="I22">
-        <v>0.00175221619266086</v>
+        <v>0.002106210220656379</v>
       </c>
       <c r="J22">
-        <v>0.2731944231672188</v>
+        <v>0.1930865994842286</v>
       </c>
       <c r="K22">
-        <v>0.3267259385706112</v>
+        <v>0.2689420316367439</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1223014011883343</v>
       </c>
       <c r="M22">
-        <v>1.665185835427252</v>
+        <v>0.09042333805498259</v>
       </c>
       <c r="N22">
-        <v>0.7194645079247834</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.701541951639427</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.7203111649597673</v>
       </c>
       <c r="Q22">
-        <v>1.209604902304264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.9956115771716298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.961257245608749</v>
+        <v>1.925273949046556</v>
       </c>
       <c r="C23">
-        <v>0.218896138535321</v>
+        <v>0.2140323456382163</v>
       </c>
       <c r="D23">
-        <v>0.1414307197313747</v>
+        <v>0.1545199130098069</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4661860592703633</v>
+        <v>0.40298807908583</v>
       </c>
       <c r="G23">
-        <v>0.3209365034103016</v>
+        <v>0.3378959728670736</v>
       </c>
       <c r="H23">
-        <v>0.0001894111282723099</v>
+        <v>0.0002336158762772378</v>
       </c>
       <c r="I23">
-        <v>0.001437444545674182</v>
+        <v>0.001764968886912577</v>
       </c>
       <c r="J23">
-        <v>0.2731559874614859</v>
+        <v>0.2111896286443091</v>
       </c>
       <c r="K23">
-        <v>0.3270994764800577</v>
+        <v>0.2743368394619097</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1253715301397147</v>
       </c>
       <c r="M23">
-        <v>1.607176324896813</v>
+        <v>0.09040034403797037</v>
       </c>
       <c r="N23">
-        <v>0.6947365024465739</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.643723245979345</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.6959303610368437</v>
       </c>
       <c r="Q23">
-        <v>1.201335959671454</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.013704902142919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.683938131308082</v>
+        <v>1.653327056581446</v>
       </c>
       <c r="C24">
-        <v>0.2098543134179494</v>
+        <v>0.203165258901933</v>
       </c>
       <c r="D24">
-        <v>0.1234669411138185</v>
+        <v>0.1303322166234011</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4338955837075105</v>
+        <v>0.3963269516553183</v>
       </c>
       <c r="G24">
-        <v>0.3053395326383495</v>
+        <v>0.2654005804213639</v>
       </c>
       <c r="H24">
-        <v>1.733721852836823E-05</v>
+        <v>1.089115555075182E-06</v>
       </c>
       <c r="I24">
-        <v>0.001129501085173068</v>
+        <v>0.001352351344403147</v>
       </c>
       <c r="J24">
-        <v>0.2724940477693139</v>
+        <v>0.2765401914146608</v>
       </c>
       <c r="K24">
-        <v>0.327059547636928</v>
+        <v>0.2886356404847028</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1356014380201866</v>
       </c>
       <c r="M24">
-        <v>1.390117923768088</v>
+        <v>0.08796380398877091</v>
       </c>
       <c r="N24">
-        <v>0.6011711904953216</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.424328709985787</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.6035165734184744</v>
       </c>
       <c r="Q24">
-        <v>1.166472819082145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.051268024224925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.384386907587242</v>
+        <v>1.363143650703194</v>
       </c>
       <c r="C25">
-        <v>0.2000357825905255</v>
+        <v>0.1887635986346439</v>
       </c>
       <c r="D25">
-        <v>0.1041220900955508</v>
+        <v>0.1086865781017963</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4013144032753999</v>
+        <v>0.3720520621782626</v>
       </c>
       <c r="G25">
-        <v>0.2903758495623237</v>
+        <v>0.2516022354622933</v>
       </c>
       <c r="H25">
-        <v>0.0005953339000572822</v>
+        <v>0.0003978242846651714</v>
       </c>
       <c r="I25">
-        <v>0.001623785286819057</v>
+        <v>0.001577825380121745</v>
       </c>
       <c r="J25">
-        <v>0.272935129554746</v>
+        <v>0.2839666508519585</v>
       </c>
       <c r="K25">
-        <v>0.3282176400029613</v>
+        <v>0.2951255149483423</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1440543013841946</v>
       </c>
       <c r="M25">
-        <v>1.156121745224738</v>
+        <v>0.08305862758984262</v>
       </c>
       <c r="N25">
-        <v>0.50046013199686</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.182052908046728</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.503646324502995</v>
       </c>
       <c r="Q25">
-        <v>1.135204864511692</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.042417455351867</v>
       </c>
     </row>
   </sheetData>
